--- a/2013_dengue_extracted.xlsx
+++ b/2013_dengue_extracted.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_fiona\Info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_fiona\Info\topic04_team04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
   <si>
     <r>
       <rPr>
@@ -1102,6 +1102,9 @@
       </rPr>
       <t>Dec</t>
     </r>
+  </si>
+  <si>
+    <t>Bungkan</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1359,6 +1362,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1667,7 +1673,7 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
@@ -1868,8 +1874,8 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="30" t="s">
-        <v>40</v>
+      <c r="A5" s="32" t="s">
+        <v>102</v>
       </c>
       <c r="B5" s="12">
         <v>1245</v>

--- a/2013_dengue_extracted.xlsx
+++ b/2013_dengue_extracted.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="102">
   <si>
     <r>
       <rPr>
@@ -958,17 +958,6 @@
         <family val="2"/>
       </rPr>
       <t>Reporting areas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Total</t>
     </r>
   </si>
   <si>
@@ -1670,40 +1659,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="26.64453125" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="9.3515625" customWidth="1"/>
-    <col min="5" max="5" width="10.41015625" customWidth="1"/>
-    <col min="6" max="6" width="9.3515625" customWidth="1"/>
-    <col min="7" max="7" width="9.76171875" customWidth="1"/>
-    <col min="8" max="8" width="9.3515625" customWidth="1"/>
-    <col min="9" max="9" width="9.17578125" customWidth="1"/>
-    <col min="10" max="10" width="10.41015625" customWidth="1"/>
-    <col min="11" max="11" width="10.87890625" customWidth="1"/>
-    <col min="12" max="13" width="10.41015625" customWidth="1"/>
-    <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="10.41015625" customWidth="1"/>
+    <col min="2" max="3" width="9.3515625" customWidth="1"/>
+    <col min="4" max="4" width="10.41015625" customWidth="1"/>
+    <col min="5" max="5" width="9.3515625" customWidth="1"/>
+    <col min="6" max="6" width="9.76171875" customWidth="1"/>
+    <col min="7" max="7" width="9.3515625" customWidth="1"/>
+    <col min="8" max="8" width="9.17578125" customWidth="1"/>
+    <col min="9" max="9" width="10.41015625" customWidth="1"/>
+    <col min="10" max="10" width="10.87890625" customWidth="1"/>
+    <col min="11" max="12" width="10.41015625" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="10.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>88</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>91</v>
       </c>
       <c r="E1" s="27" t="s">
@@ -1712,3496 +1700,3262 @@
       <c r="F1" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="29" t="s">
         <v>94</v>
       </c>
       <c r="H1" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="27" t="s">
         <v>96</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="12">
-        <v>553</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="B2" s="10">
         <v>8</v>
       </c>
-      <c r="D2" s="11">
+      <c r="C2" s="11">
         <v>14</v>
       </c>
+      <c r="D2" s="12">
+        <v>9</v>
+      </c>
       <c r="E2" s="12">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F2" s="12">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="G2" s="12">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="H2" s="12">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="I2" s="12">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="J2" s="12">
-        <v>60</v>
-      </c>
-      <c r="K2" s="12">
         <v>28</v>
       </c>
-      <c r="L2" s="11">
+      <c r="K2" s="11">
         <v>11</v>
       </c>
-      <c r="M2" s="10">
+      <c r="L2" s="10">
         <v>0</v>
       </c>
-      <c r="N2" s="12">
+      <c r="M2" s="12">
         <v>1</v>
       </c>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="10">
-        <v>229</v>
-      </c>
-      <c r="C3" s="10">
         <v>24</v>
       </c>
-      <c r="D3" s="9">
+      <c r="C3" s="9">
         <v>17</v>
       </c>
+      <c r="D3" s="10">
+        <v>15</v>
+      </c>
       <c r="E3" s="10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3" s="10">
+        <v>25</v>
+      </c>
+      <c r="G3" s="12">
+        <v>23</v>
+      </c>
+      <c r="H3" s="12">
+        <v>21</v>
+      </c>
+      <c r="I3" s="10">
+        <v>33</v>
+      </c>
+      <c r="J3" s="10">
         <v>19</v>
       </c>
-      <c r="G3" s="10">
-        <v>25</v>
-      </c>
-      <c r="H3" s="12">
-        <v>23</v>
-      </c>
-      <c r="I3" s="12">
-        <v>21</v>
-      </c>
-      <c r="J3" s="10">
-        <v>33</v>
-      </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>19</v>
       </c>
-      <c r="L3" s="9">
-        <v>19</v>
-      </c>
-      <c r="M3" s="10">
+      <c r="L3" s="10">
         <v>7</v>
       </c>
-      <c r="N3" s="12">
+      <c r="M3" s="12">
         <v>7</v>
       </c>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="10">
-        <v>14775</v>
-      </c>
-      <c r="C4" s="10">
         <v>1509</v>
       </c>
-      <c r="D4" s="9">
+      <c r="C4" s="9">
         <v>760</v>
       </c>
+      <c r="D4" s="10">
+        <v>643</v>
+      </c>
       <c r="E4" s="10">
-        <v>643</v>
+        <v>551</v>
       </c>
       <c r="F4" s="10">
-        <v>551</v>
-      </c>
-      <c r="G4" s="10">
         <v>635</v>
       </c>
+      <c r="G4" s="12">
+        <v>965</v>
+      </c>
       <c r="H4" s="12">
-        <v>965</v>
-      </c>
-      <c r="I4" s="12">
         <v>1862</v>
       </c>
+      <c r="I4" s="10">
+        <v>2138</v>
+      </c>
       <c r="J4" s="10">
-        <v>2138</v>
-      </c>
-      <c r="K4" s="10">
         <v>1640</v>
       </c>
-      <c r="L4" s="9">
+      <c r="K4" s="9">
         <v>1649</v>
       </c>
-      <c r="M4" s="10">
+      <c r="L4" s="10">
         <v>1596</v>
       </c>
-      <c r="N4" s="12">
+      <c r="M4" s="12">
         <v>827</v>
       </c>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1245</v>
-      </c>
-      <c r="C5" s="10">
+        <v>101</v>
+      </c>
+      <c r="B5" s="10">
         <v>7</v>
       </c>
-      <c r="D5" s="11">
+      <c r="C5" s="11">
         <v>9</v>
       </c>
+      <c r="D5" s="12">
+        <v>34</v>
+      </c>
       <c r="E5" s="12">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="F5" s="12">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c r="G5" s="12">
-        <v>251</v>
+        <v>432</v>
       </c>
       <c r="H5" s="12">
-        <v>432</v>
+        <v>243</v>
       </c>
       <c r="I5" s="12">
-        <v>243</v>
+        <v>123</v>
       </c>
       <c r="J5" s="12">
-        <v>123</v>
-      </c>
-      <c r="K5" s="12">
         <v>27</v>
       </c>
-      <c r="L5" s="11">
+      <c r="K5" s="11">
         <v>5</v>
       </c>
-      <c r="M5" s="10">
+      <c r="L5" s="10">
         <v>2</v>
       </c>
-      <c r="N5" s="12">
+      <c r="M5" s="12">
         <v>2</v>
       </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="12">
-        <v>2524</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="B6" s="10">
         <v>111</v>
       </c>
-      <c r="D6" s="11">
+      <c r="C6" s="11">
         <v>120</v>
       </c>
+      <c r="D6" s="12">
+        <v>184</v>
+      </c>
       <c r="E6" s="12">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="F6" s="12">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="G6" s="12">
-        <v>211</v>
+        <v>466</v>
       </c>
       <c r="H6" s="12">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="I6" s="12">
-        <v>477</v>
+        <v>378</v>
       </c>
       <c r="J6" s="12">
-        <v>378</v>
-      </c>
-      <c r="K6" s="12">
         <v>278</v>
       </c>
-      <c r="L6" s="11">
+      <c r="K6" s="11">
         <v>87</v>
       </c>
-      <c r="M6" s="10">
+      <c r="L6" s="10">
         <v>49</v>
       </c>
-      <c r="N6" s="12">
+      <c r="M6" s="12">
         <v>5</v>
       </c>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="10">
-        <v>684</v>
-      </c>
-      <c r="C7" s="10">
         <v>40</v>
       </c>
-      <c r="D7" s="9">
+      <c r="C7" s="9">
         <v>31</v>
       </c>
+      <c r="D7" s="10">
+        <v>35</v>
+      </c>
       <c r="E7" s="10">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="10">
-        <v>34</v>
-      </c>
-      <c r="G7" s="10">
         <v>54</v>
       </c>
+      <c r="G7" s="12">
+        <v>98</v>
+      </c>
       <c r="H7" s="12">
-        <v>98</v>
-      </c>
-      <c r="I7" s="12">
         <v>126</v>
       </c>
+      <c r="I7" s="10">
+        <v>104</v>
+      </c>
       <c r="J7" s="10">
-        <v>104</v>
-      </c>
-      <c r="K7" s="10">
         <v>77</v>
       </c>
-      <c r="L7" s="9">
+      <c r="K7" s="9">
         <v>46</v>
       </c>
-      <c r="M7" s="10">
+      <c r="L7" s="10">
         <v>31</v>
       </c>
-      <c r="N7" s="12">
+      <c r="M7" s="12">
         <v>8</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="10">
-        <v>398</v>
-      </c>
-      <c r="C8" s="10">
         <v>40</v>
       </c>
-      <c r="D8" s="9">
+      <c r="C8" s="9">
         <v>41</v>
       </c>
+      <c r="D8" s="10">
+        <v>44</v>
+      </c>
       <c r="E8" s="10">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F8" s="10">
-        <v>26</v>
-      </c>
-      <c r="G8" s="10">
         <v>33</v>
       </c>
+      <c r="G8" s="12">
+        <v>68</v>
+      </c>
       <c r="H8" s="12">
-        <v>68</v>
-      </c>
-      <c r="I8" s="12">
         <v>101</v>
       </c>
+      <c r="I8" s="10">
+        <v>20</v>
+      </c>
       <c r="J8" s="10">
-        <v>20</v>
-      </c>
-      <c r="K8" s="10">
         <v>5</v>
       </c>
-      <c r="L8" s="9">
+      <c r="K8" s="9">
         <v>13</v>
       </c>
-      <c r="M8" s="10">
+      <c r="L8" s="10">
         <v>4</v>
       </c>
-      <c r="N8" s="12">
+      <c r="M8" s="12">
         <v>3</v>
       </c>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="12">
-        <v>1434</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="10">
         <v>43</v>
       </c>
-      <c r="D9" s="11">
+      <c r="C9" s="11">
         <v>45</v>
       </c>
+      <c r="D9" s="12">
+        <v>101</v>
+      </c>
       <c r="E9" s="12">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F9" s="12">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="G9" s="12">
-        <v>142</v>
+        <v>289</v>
       </c>
       <c r="H9" s="12">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I9" s="12">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="J9" s="12">
-        <v>226</v>
-      </c>
-      <c r="K9" s="12">
         <v>113</v>
       </c>
-      <c r="L9" s="11">
+      <c r="K9" s="11">
         <v>42</v>
       </c>
-      <c r="M9" s="10">
+      <c r="L9" s="10">
         <v>31</v>
       </c>
-      <c r="N9" s="12">
+      <c r="M9" s="12">
         <v>7</v>
       </c>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="10">
-        <v>1476</v>
-      </c>
-      <c r="C10" s="10">
         <v>62</v>
       </c>
-      <c r="D10" s="9">
+      <c r="C10" s="9">
         <v>36</v>
       </c>
+      <c r="D10" s="10">
+        <v>64</v>
+      </c>
       <c r="E10" s="10">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="F10" s="10">
-        <v>105</v>
-      </c>
-      <c r="G10" s="10">
         <v>184</v>
       </c>
+      <c r="G10" s="12">
+        <v>281</v>
+      </c>
       <c r="H10" s="12">
-        <v>281</v>
-      </c>
-      <c r="I10" s="12">
         <v>273</v>
       </c>
+      <c r="I10" s="10">
+        <v>192</v>
+      </c>
       <c r="J10" s="10">
-        <v>192</v>
-      </c>
-      <c r="K10" s="10">
         <v>119</v>
       </c>
-      <c r="L10" s="9">
+      <c r="K10" s="9">
         <v>81</v>
       </c>
-      <c r="M10" s="10">
+      <c r="L10" s="10">
         <v>60</v>
       </c>
-      <c r="N10" s="12">
+      <c r="M10" s="12">
         <v>19</v>
       </c>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="12">
-        <v>11432</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11" s="10">
         <v>138</v>
       </c>
-      <c r="D11" s="11">
+      <c r="C11" s="11">
         <v>90</v>
       </c>
+      <c r="D11" s="12">
+        <v>175</v>
+      </c>
       <c r="E11" s="12">
-        <v>175</v>
+        <v>573</v>
       </c>
       <c r="F11" s="12">
-        <v>573</v>
+        <v>1293</v>
       </c>
       <c r="G11" s="12">
-        <v>1293</v>
+        <v>3120</v>
       </c>
       <c r="H11" s="12">
-        <v>3120</v>
+        <v>3146</v>
       </c>
       <c r="I11" s="12">
-        <v>3146</v>
+        <v>1691</v>
       </c>
       <c r="J11" s="12">
-        <v>1691</v>
-      </c>
-      <c r="K11" s="12">
         <v>818</v>
       </c>
-      <c r="L11" s="11">
+      <c r="K11" s="11">
         <v>240</v>
       </c>
-      <c r="M11" s="10">
+      <c r="L11" s="10">
         <v>106</v>
       </c>
-      <c r="N11" s="12">
+      <c r="M11" s="12">
         <v>42</v>
       </c>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="12">
-        <v>13312</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="B12" s="10">
         <v>131</v>
       </c>
-      <c r="D12" s="11">
+      <c r="C12" s="11">
         <v>47</v>
       </c>
+      <c r="D12" s="12">
+        <v>86</v>
+      </c>
       <c r="E12" s="12">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="F12" s="12">
-        <v>222</v>
+        <v>997</v>
       </c>
       <c r="G12" s="12">
-        <v>997</v>
+        <v>2577</v>
       </c>
       <c r="H12" s="12">
-        <v>2577</v>
+        <v>3982</v>
       </c>
       <c r="I12" s="12">
-        <v>3982</v>
+        <v>3204</v>
       </c>
       <c r="J12" s="12">
-        <v>3204</v>
-      </c>
-      <c r="K12" s="12">
         <v>1415</v>
       </c>
-      <c r="L12" s="11">
+      <c r="K12" s="11">
         <v>461</v>
       </c>
-      <c r="M12" s="10">
+      <c r="L12" s="10">
         <v>150</v>
       </c>
-      <c r="N12" s="12">
+      <c r="M12" s="12">
         <v>40</v>
       </c>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="10">
-        <v>2081</v>
-      </c>
-      <c r="C13" s="10">
         <v>144</v>
       </c>
-      <c r="D13" s="9">
+      <c r="C13" s="9">
         <v>119</v>
       </c>
+      <c r="D13" s="10">
+        <v>121</v>
+      </c>
       <c r="E13" s="10">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="F13" s="10">
-        <v>155</v>
-      </c>
-      <c r="G13" s="10">
         <v>166</v>
       </c>
+      <c r="G13" s="12">
+        <v>270</v>
+      </c>
       <c r="H13" s="12">
-        <v>270</v>
-      </c>
-      <c r="I13" s="12">
         <v>202</v>
       </c>
+      <c r="I13" s="10">
+        <v>313</v>
+      </c>
       <c r="J13" s="10">
-        <v>313</v>
-      </c>
-      <c r="K13" s="10">
         <v>251</v>
       </c>
-      <c r="L13" s="9">
+      <c r="K13" s="9">
         <v>165</v>
       </c>
-      <c r="M13" s="10">
+      <c r="L13" s="10">
         <v>118</v>
       </c>
-      <c r="N13" s="12">
+      <c r="M13" s="12">
         <v>57</v>
       </c>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="10">
-        <v>1181</v>
-      </c>
-      <c r="C14" s="10">
         <v>60</v>
       </c>
-      <c r="D14" s="9">
+      <c r="C14" s="9">
         <v>76</v>
       </c>
+      <c r="D14" s="10">
+        <v>91</v>
+      </c>
       <c r="E14" s="10">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F14" s="10">
-        <v>86</v>
-      </c>
-      <c r="G14" s="10">
         <v>161</v>
       </c>
+      <c r="G14" s="12">
+        <v>200</v>
+      </c>
       <c r="H14" s="12">
-        <v>200</v>
-      </c>
-      <c r="I14" s="12">
         <v>205</v>
       </c>
+      <c r="I14" s="10">
+        <v>109</v>
+      </c>
       <c r="J14" s="10">
-        <v>109</v>
-      </c>
-      <c r="K14" s="10">
         <v>81</v>
       </c>
-      <c r="L14" s="9">
+      <c r="K14" s="9">
         <v>42</v>
       </c>
-      <c r="M14" s="10">
+      <c r="L14" s="10">
         <v>44</v>
       </c>
-      <c r="N14" s="12">
+      <c r="M14" s="12">
         <v>26</v>
       </c>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="12">
-        <v>1452</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B15" s="10">
         <v>19</v>
       </c>
-      <c r="D15" s="11">
+      <c r="C15" s="11">
         <v>18</v>
       </c>
+      <c r="D15" s="12">
+        <v>46</v>
+      </c>
       <c r="E15" s="12">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F15" s="12">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="G15" s="12">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="H15" s="12">
-        <v>179</v>
+        <v>523</v>
       </c>
       <c r="I15" s="12">
-        <v>523</v>
+        <v>310</v>
       </c>
       <c r="J15" s="12">
-        <v>310</v>
-      </c>
-      <c r="K15" s="12">
         <v>119</v>
       </c>
-      <c r="L15" s="11">
+      <c r="K15" s="11">
         <v>50</v>
       </c>
-      <c r="M15" s="10">
+      <c r="L15" s="10">
         <v>24</v>
       </c>
-      <c r="N15" s="12">
+      <c r="M15" s="12">
         <v>1</v>
       </c>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="12">
-        <v>1135</v>
-      </c>
-      <c r="C16" s="10">
+      <c r="B16" s="10">
         <v>37</v>
       </c>
-      <c r="D16" s="11">
+      <c r="C16" s="11">
         <v>63</v>
       </c>
+      <c r="D16" s="12">
+        <v>76</v>
+      </c>
       <c r="E16" s="12">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F16" s="12">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G16" s="12">
-        <v>91</v>
+        <v>239</v>
       </c>
       <c r="H16" s="12">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="I16" s="12">
-        <v>259</v>
+        <v>123</v>
       </c>
       <c r="J16" s="12">
-        <v>123</v>
-      </c>
-      <c r="K16" s="12">
         <v>64</v>
       </c>
-      <c r="L16" s="11">
+      <c r="K16" s="11">
         <v>40</v>
       </c>
-      <c r="M16" s="10">
+      <c r="L16" s="10">
         <v>37</v>
       </c>
-      <c r="N16" s="12">
+      <c r="M16" s="12">
         <v>16</v>
       </c>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="10">
-        <v>506</v>
-      </c>
-      <c r="C17" s="10">
         <v>65</v>
       </c>
-      <c r="D17" s="9">
+      <c r="C17" s="9">
         <v>52</v>
       </c>
+      <c r="D17" s="10">
+        <v>49</v>
+      </c>
       <c r="E17" s="10">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F17" s="10">
-        <v>44</v>
-      </c>
-      <c r="G17" s="10">
         <v>34</v>
       </c>
+      <c r="G17" s="12">
+        <v>38</v>
+      </c>
       <c r="H17" s="12">
-        <v>38</v>
-      </c>
-      <c r="I17" s="12">
         <v>74</v>
       </c>
+      <c r="I17" s="10">
+        <v>70</v>
+      </c>
       <c r="J17" s="10">
-        <v>70</v>
-      </c>
-      <c r="K17" s="10">
         <v>31</v>
       </c>
-      <c r="L17" s="9">
+      <c r="K17" s="9">
         <v>28</v>
       </c>
-      <c r="M17" s="10">
+      <c r="L17" s="10">
         <v>15</v>
       </c>
-      <c r="N17" s="12">
+      <c r="M17" s="12">
         <v>6</v>
       </c>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="12">
-        <v>3083</v>
-      </c>
-      <c r="C18" s="10">
+      <c r="B18" s="10">
         <v>112</v>
       </c>
-      <c r="D18" s="11">
+      <c r="C18" s="11">
         <v>67</v>
       </c>
+      <c r="D18" s="12">
+        <v>101</v>
+      </c>
       <c r="E18" s="12">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F18" s="12">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="G18" s="12">
-        <v>217</v>
+        <v>377</v>
       </c>
       <c r="H18" s="12">
-        <v>377</v>
+        <v>825</v>
       </c>
       <c r="I18" s="12">
-        <v>825</v>
+        <v>794</v>
       </c>
       <c r="J18" s="12">
-        <v>794</v>
-      </c>
-      <c r="K18" s="12">
         <v>359</v>
       </c>
-      <c r="L18" s="11">
+      <c r="K18" s="11">
         <v>96</v>
       </c>
-      <c r="M18" s="10">
+      <c r="L18" s="10">
         <v>28</v>
       </c>
-      <c r="N18" s="12">
+      <c r="M18" s="12">
         <v>3</v>
       </c>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="25" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="10">
-        <v>2239</v>
-      </c>
-      <c r="C19" s="10">
         <v>201</v>
       </c>
-      <c r="D19" s="9">
+      <c r="C19" s="9">
         <v>168</v>
       </c>
+      <c r="D19" s="10">
+        <v>186</v>
+      </c>
       <c r="E19" s="10">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="F19" s="10">
-        <v>207</v>
-      </c>
-      <c r="G19" s="10">
         <v>384</v>
       </c>
+      <c r="G19" s="12">
+        <v>417</v>
+      </c>
       <c r="H19" s="12">
-        <v>417</v>
-      </c>
-      <c r="I19" s="12">
         <v>295</v>
       </c>
+      <c r="I19" s="10">
+        <v>155</v>
+      </c>
       <c r="J19" s="10">
-        <v>155</v>
-      </c>
-      <c r="K19" s="10">
         <v>85</v>
       </c>
-      <c r="L19" s="9">
+      <c r="K19" s="9">
         <v>59</v>
       </c>
-      <c r="M19" s="10">
+      <c r="L19" s="10">
         <v>53</v>
       </c>
-      <c r="N19" s="12">
+      <c r="M19" s="12">
         <v>29</v>
       </c>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="12">
-        <v>3433</v>
-      </c>
-      <c r="C20" s="10">
+      <c r="B20" s="10">
         <v>33</v>
       </c>
-      <c r="D20" s="11">
+      <c r="C20" s="11">
         <v>35</v>
       </c>
+      <c r="D20" s="12">
+        <v>37</v>
+      </c>
       <c r="E20" s="12">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="F20" s="12">
-        <v>109</v>
+        <v>302</v>
       </c>
       <c r="G20" s="12">
+        <v>928</v>
+      </c>
+      <c r="H20" s="12">
+        <v>979</v>
+      </c>
+      <c r="I20" s="12">
+        <v>573</v>
+      </c>
+      <c r="J20" s="12">
         <v>302</v>
       </c>
-      <c r="H20" s="12">
-        <v>928</v>
-      </c>
-      <c r="I20" s="12">
-        <v>979</v>
-      </c>
-      <c r="J20" s="12">
-        <v>573</v>
-      </c>
-      <c r="K20" s="12">
-        <v>302</v>
-      </c>
-      <c r="L20" s="11">
+      <c r="K20" s="11">
         <v>89</v>
       </c>
-      <c r="M20" s="10">
+      <c r="L20" s="10">
         <v>39</v>
       </c>
-      <c r="N20" s="12">
+      <c r="M20" s="12">
         <v>7</v>
       </c>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="12">
-        <v>1252</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="B21" s="10">
         <v>37</v>
       </c>
-      <c r="D21" s="11">
+      <c r="C21" s="11">
         <v>23</v>
       </c>
+      <c r="D21" s="12">
+        <v>48</v>
+      </c>
       <c r="E21" s="12">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="F21" s="12">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="G21" s="12">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="H21" s="12">
-        <v>209</v>
+        <v>379</v>
       </c>
       <c r="I21" s="12">
-        <v>379</v>
+        <v>213</v>
       </c>
       <c r="J21" s="12">
-        <v>213</v>
-      </c>
-      <c r="K21" s="12">
         <v>88</v>
       </c>
-      <c r="L21" s="11">
+      <c r="K21" s="11">
         <v>38</v>
       </c>
-      <c r="M21" s="10">
+      <c r="L21" s="10">
         <v>4</v>
       </c>
-      <c r="N21" s="12">
+      <c r="M21" s="12">
         <v>1</v>
       </c>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="12">
-        <v>2754</v>
-      </c>
-      <c r="C22" s="10">
+      <c r="B22" s="10">
         <v>83</v>
       </c>
-      <c r="D22" s="11">
+      <c r="C22" s="11">
         <v>89</v>
       </c>
+      <c r="D22" s="12">
+        <v>156</v>
+      </c>
       <c r="E22" s="12">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="F22" s="12">
-        <v>256</v>
+        <v>472</v>
       </c>
       <c r="G22" s="12">
-        <v>472</v>
+        <v>670</v>
       </c>
       <c r="H22" s="12">
-        <v>670</v>
+        <v>608</v>
       </c>
       <c r="I22" s="12">
-        <v>608</v>
+        <v>251</v>
       </c>
       <c r="J22" s="12">
-        <v>251</v>
-      </c>
-      <c r="K22" s="12">
         <v>80</v>
       </c>
-      <c r="L22" s="11">
+      <c r="K22" s="11">
         <v>57</v>
       </c>
-      <c r="M22" s="10">
+      <c r="L22" s="10">
         <v>25</v>
       </c>
-      <c r="N22" s="12">
+      <c r="M22" s="12">
         <v>7</v>
       </c>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="10">
-        <v>828</v>
-      </c>
-      <c r="C23" s="10">
         <v>38</v>
       </c>
-      <c r="D23" s="9">
+      <c r="C23" s="9">
         <v>57</v>
       </c>
+      <c r="D23" s="10">
+        <v>55</v>
+      </c>
       <c r="E23" s="10">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F23" s="10">
-        <v>17</v>
-      </c>
-      <c r="G23" s="10">
         <v>47</v>
       </c>
+      <c r="G23" s="12">
+        <v>84</v>
+      </c>
       <c r="H23" s="12">
-        <v>84</v>
-      </c>
-      <c r="I23" s="12">
         <v>147</v>
       </c>
+      <c r="I23" s="10">
+        <v>116</v>
+      </c>
       <c r="J23" s="10">
-        <v>116</v>
-      </c>
-      <c r="K23" s="10">
         <v>87</v>
       </c>
-      <c r="L23" s="9">
+      <c r="K23" s="9">
         <v>73</v>
       </c>
-      <c r="M23" s="10">
+      <c r="L23" s="10">
         <v>80</v>
       </c>
-      <c r="N23" s="12">
+      <c r="M23" s="12">
         <v>27</v>
       </c>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="12">
-        <v>1875</v>
-      </c>
-      <c r="C24" s="10">
+      <c r="B24" s="10">
         <v>5</v>
       </c>
-      <c r="D24" s="11">
+      <c r="C24" s="11">
         <v>11</v>
       </c>
+      <c r="D24" s="12">
+        <v>12</v>
+      </c>
       <c r="E24" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F24" s="12">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="G24" s="12">
-        <v>182</v>
+        <v>412</v>
       </c>
       <c r="H24" s="12">
-        <v>412</v>
+        <v>513</v>
       </c>
       <c r="I24" s="12">
-        <v>513</v>
+        <v>331</v>
       </c>
       <c r="J24" s="12">
-        <v>331</v>
-      </c>
-      <c r="K24" s="12">
         <v>156</v>
       </c>
-      <c r="L24" s="11">
+      <c r="K24" s="11">
         <v>92</v>
       </c>
-      <c r="M24" s="10">
+      <c r="L24" s="10">
         <v>88</v>
       </c>
-      <c r="N24" s="12">
+      <c r="M24" s="12">
         <v>29</v>
       </c>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="12">
-        <v>2749</v>
-      </c>
-      <c r="C25" s="10">
+      <c r="B25" s="10">
         <v>96</v>
       </c>
-      <c r="D25" s="11">
+      <c r="C25" s="11">
         <v>91</v>
       </c>
+      <c r="D25" s="12">
+        <v>139</v>
+      </c>
       <c r="E25" s="12">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="F25" s="12">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="G25" s="12">
-        <v>164</v>
+        <v>484</v>
       </c>
       <c r="H25" s="12">
-        <v>484</v>
+        <v>610</v>
       </c>
       <c r="I25" s="12">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="J25" s="12">
-        <v>590</v>
-      </c>
-      <c r="K25" s="12">
         <v>310</v>
       </c>
-      <c r="L25" s="11">
+      <c r="K25" s="11">
         <v>126</v>
       </c>
-      <c r="M25" s="10">
+      <c r="L25" s="10">
         <v>55</v>
       </c>
-      <c r="N25" s="12">
+      <c r="M25" s="12">
         <v>17</v>
       </c>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="12">
-        <v>999</v>
-      </c>
-      <c r="C26" s="10">
+      <c r="B26" s="10">
         <v>19</v>
       </c>
-      <c r="D26" s="11">
+      <c r="C26" s="11">
         <v>20</v>
       </c>
+      <c r="D26" s="12">
+        <v>39</v>
+      </c>
       <c r="E26" s="12">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="F26" s="12">
-        <v>91</v>
+        <v>231</v>
       </c>
       <c r="G26" s="12">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="H26" s="12">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="I26" s="12">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="J26" s="12">
-        <v>117</v>
-      </c>
-      <c r="K26" s="12">
         <v>33</v>
       </c>
-      <c r="L26" s="11">
+      <c r="K26" s="11">
         <v>15</v>
       </c>
-      <c r="M26" s="10">
+      <c r="L26" s="10">
         <v>7</v>
       </c>
-      <c r="N26" s="12">
+      <c r="M26" s="12">
         <v>2</v>
       </c>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="10">
-        <v>341</v>
-      </c>
-      <c r="C27" s="10">
         <v>10</v>
       </c>
-      <c r="D27" s="9">
+      <c r="C27" s="9">
         <v>26</v>
       </c>
+      <c r="D27" s="10">
+        <v>25</v>
+      </c>
       <c r="E27" s="10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F27" s="10">
-        <v>30</v>
-      </c>
-      <c r="G27" s="10">
         <v>63</v>
       </c>
+      <c r="G27" s="12">
+        <v>49</v>
+      </c>
       <c r="H27" s="12">
-        <v>49</v>
-      </c>
-      <c r="I27" s="12">
         <v>53</v>
       </c>
+      <c r="I27" s="10">
+        <v>51</v>
+      </c>
       <c r="J27" s="10">
-        <v>51</v>
-      </c>
-      <c r="K27" s="10">
         <v>22</v>
       </c>
-      <c r="L27" s="9">
+      <c r="K27" s="9">
         <v>10</v>
       </c>
-      <c r="M27" s="10">
+      <c r="L27" s="10">
         <v>1</v>
       </c>
-      <c r="N27" s="12">
+      <c r="M27" s="12">
         <v>1</v>
       </c>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="10">
-        <v>1241</v>
-      </c>
-      <c r="C28" s="10">
         <v>129</v>
       </c>
-      <c r="D28" s="9">
+      <c r="C28" s="9">
         <v>122</v>
       </c>
+      <c r="D28" s="10">
+        <v>110</v>
+      </c>
       <c r="E28" s="10">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F28" s="10">
-        <v>108</v>
-      </c>
-      <c r="G28" s="10">
         <v>35</v>
       </c>
+      <c r="G28" s="12">
+        <v>31</v>
+      </c>
       <c r="H28" s="12">
-        <v>31</v>
-      </c>
-      <c r="I28" s="12">
         <v>114</v>
       </c>
+      <c r="I28" s="10">
+        <v>208</v>
+      </c>
       <c r="J28" s="10">
-        <v>208</v>
-      </c>
-      <c r="K28" s="10">
         <v>151</v>
       </c>
-      <c r="L28" s="9">
+      <c r="K28" s="9">
         <v>100</v>
       </c>
-      <c r="M28" s="10">
+      <c r="L28" s="10">
         <v>81</v>
       </c>
-      <c r="N28" s="12">
+      <c r="M28" s="12">
         <v>52</v>
       </c>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="12">
-        <v>2345</v>
-      </c>
-      <c r="C29" s="10">
+      <c r="B29" s="10">
         <v>37</v>
       </c>
-      <c r="D29" s="11">
+      <c r="C29" s="11">
         <v>35</v>
       </c>
+      <c r="D29" s="12">
+        <v>91</v>
+      </c>
       <c r="E29" s="12">
-        <v>91</v>
+        <v>238</v>
       </c>
       <c r="F29" s="12">
-        <v>238</v>
+        <v>527</v>
       </c>
       <c r="G29" s="12">
-        <v>527</v>
+        <v>764</v>
       </c>
       <c r="H29" s="12">
-        <v>764</v>
+        <v>459</v>
       </c>
       <c r="I29" s="12">
-        <v>459</v>
+        <v>127</v>
       </c>
       <c r="J29" s="12">
-        <v>127</v>
-      </c>
-      <c r="K29" s="12">
         <v>32</v>
       </c>
-      <c r="L29" s="11">
+      <c r="K29" s="11">
         <v>26</v>
       </c>
-      <c r="M29" s="10">
+      <c r="L29" s="10">
         <v>9</v>
       </c>
-      <c r="N29" s="12">
+      <c r="M29" s="12">
         <v>0</v>
       </c>
-      <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="12">
-        <v>6962</v>
-      </c>
-      <c r="C30" s="10">
+      <c r="B30" s="10">
         <v>294</v>
       </c>
-      <c r="D30" s="11">
+      <c r="C30" s="11">
         <v>221</v>
       </c>
+      <c r="D30" s="12">
+        <v>365</v>
+      </c>
       <c r="E30" s="12">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F30" s="12">
-        <v>366</v>
+        <v>663</v>
       </c>
       <c r="G30" s="12">
-        <v>663</v>
+        <v>1364</v>
       </c>
       <c r="H30" s="12">
-        <v>1364</v>
+        <v>1560</v>
       </c>
       <c r="I30" s="12">
-        <v>1560</v>
+        <v>1092</v>
       </c>
       <c r="J30" s="12">
-        <v>1092</v>
-      </c>
-      <c r="K30" s="12">
         <v>614</v>
       </c>
-      <c r="L30" s="11">
+      <c r="K30" s="11">
         <v>281</v>
       </c>
-      <c r="M30" s="10">
+      <c r="L30" s="10">
         <v>111</v>
       </c>
-      <c r="N30" s="12">
+      <c r="M30" s="12">
         <v>31</v>
       </c>
-      <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="12">
-        <v>1954</v>
-      </c>
-      <c r="C31" s="10">
+      <c r="B31" s="10">
         <v>182</v>
       </c>
-      <c r="D31" s="11">
+      <c r="C31" s="11">
         <v>149</v>
       </c>
+      <c r="D31" s="12">
+        <v>210</v>
+      </c>
       <c r="E31" s="12">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="F31" s="12">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="G31" s="12">
-        <v>107</v>
+        <v>284</v>
       </c>
       <c r="H31" s="12">
-        <v>284</v>
+        <v>339</v>
       </c>
       <c r="I31" s="12">
-        <v>339</v>
+        <v>218</v>
       </c>
       <c r="J31" s="12">
-        <v>218</v>
-      </c>
-      <c r="K31" s="12">
         <v>131</v>
       </c>
-      <c r="L31" s="11">
+      <c r="K31" s="11">
         <v>92</v>
       </c>
-      <c r="M31" s="10">
+      <c r="L31" s="10">
         <v>65</v>
       </c>
-      <c r="N31" s="12">
+      <c r="M31" s="12">
         <v>24</v>
       </c>
-      <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="10">
-        <v>4543</v>
-      </c>
-      <c r="C32" s="10">
         <v>565</v>
       </c>
-      <c r="D32" s="9">
+      <c r="C32" s="9">
         <v>388</v>
       </c>
+      <c r="D32" s="10">
+        <v>325</v>
+      </c>
       <c r="E32" s="10">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="F32" s="10">
-        <v>358</v>
-      </c>
-      <c r="G32" s="10">
         <v>664</v>
       </c>
+      <c r="G32" s="12">
+        <v>936</v>
+      </c>
       <c r="H32" s="12">
-        <v>936</v>
-      </c>
-      <c r="I32" s="12">
         <v>490</v>
       </c>
+      <c r="I32" s="10">
+        <v>361</v>
+      </c>
       <c r="J32" s="10">
-        <v>361</v>
-      </c>
-      <c r="K32" s="10">
         <v>191</v>
       </c>
-      <c r="L32" s="9">
+      <c r="K32" s="9">
         <v>109</v>
       </c>
-      <c r="M32" s="10">
+      <c r="L32" s="10">
         <v>112</v>
       </c>
-      <c r="N32" s="12">
+      <c r="M32" s="12">
         <v>44</v>
       </c>
-      <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="12">
-        <v>876</v>
-      </c>
-      <c r="C33" s="10">
+      <c r="B33" s="10">
         <v>16</v>
       </c>
-      <c r="D33" s="11">
+      <c r="C33" s="11">
         <v>22</v>
       </c>
+      <c r="D33" s="12">
+        <v>18</v>
+      </c>
       <c r="E33" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F33" s="12">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G33" s="12">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="H33" s="12">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="I33" s="12">
-        <v>291</v>
+        <v>156</v>
       </c>
       <c r="J33" s="12">
-        <v>156</v>
-      </c>
-      <c r="K33" s="12">
         <v>63</v>
       </c>
-      <c r="L33" s="11">
+      <c r="K33" s="11">
         <v>20</v>
       </c>
-      <c r="M33" s="10">
+      <c r="L33" s="10">
         <v>16</v>
       </c>
-      <c r="N33" s="12">
+      <c r="M33" s="12">
         <v>1</v>
       </c>
-      <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="10">
-        <v>1540</v>
-      </c>
-      <c r="C34" s="10">
         <v>124</v>
       </c>
-      <c r="D34" s="9">
+      <c r="C34" s="9">
         <v>92</v>
       </c>
+      <c r="D34" s="10">
+        <v>89</v>
+      </c>
       <c r="E34" s="10">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="F34" s="10">
-        <v>53</v>
-      </c>
-      <c r="G34" s="10">
         <v>54</v>
       </c>
+      <c r="G34" s="12">
+        <v>148</v>
+      </c>
       <c r="H34" s="12">
-        <v>148</v>
-      </c>
-      <c r="I34" s="12">
         <v>277</v>
       </c>
+      <c r="I34" s="10">
+        <v>235</v>
+      </c>
       <c r="J34" s="10">
-        <v>235</v>
-      </c>
-      <c r="K34" s="10">
         <v>150</v>
       </c>
-      <c r="L34" s="9">
+      <c r="K34" s="9">
         <v>145</v>
       </c>
-      <c r="M34" s="10">
+      <c r="L34" s="10">
         <v>115</v>
       </c>
-      <c r="N34" s="12">
+      <c r="M34" s="12">
         <v>58</v>
       </c>
-      <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="12">
-        <v>7509</v>
-      </c>
-      <c r="C35" s="10">
+      <c r="B35" s="10">
         <v>179</v>
       </c>
-      <c r="D35" s="11">
+      <c r="C35" s="11">
         <v>183</v>
       </c>
+      <c r="D35" s="12">
+        <v>345</v>
+      </c>
       <c r="E35" s="12">
-        <v>345</v>
+        <v>564</v>
       </c>
       <c r="F35" s="12">
-        <v>564</v>
+        <v>1107</v>
       </c>
       <c r="G35" s="12">
-        <v>1107</v>
+        <v>1856</v>
       </c>
       <c r="H35" s="12">
-        <v>1856</v>
+        <v>1875</v>
       </c>
       <c r="I35" s="12">
-        <v>1875</v>
+        <v>956</v>
       </c>
       <c r="J35" s="12">
-        <v>956</v>
-      </c>
-      <c r="K35" s="12">
         <v>288</v>
       </c>
-      <c r="L35" s="11">
+      <c r="K35" s="11">
         <v>105</v>
       </c>
-      <c r="M35" s="10">
+      <c r="L35" s="10">
         <v>41</v>
       </c>
-      <c r="N35" s="12">
+      <c r="M35" s="12">
         <v>10</v>
       </c>
-      <c r="O35" s="2"/>
-    </row>
-    <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="12">
-        <v>1079</v>
-      </c>
-      <c r="C36" s="10">
+      <c r="B36" s="10">
         <v>21</v>
       </c>
-      <c r="D36" s="11">
+      <c r="C36" s="11">
         <v>16</v>
       </c>
+      <c r="D36" s="12">
+        <v>12</v>
+      </c>
       <c r="E36" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F36" s="12">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="G36" s="12">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="H36" s="12">
-        <v>196</v>
+        <v>403</v>
       </c>
       <c r="I36" s="12">
-        <v>403</v>
+        <v>210</v>
       </c>
       <c r="J36" s="12">
-        <v>210</v>
-      </c>
-      <c r="K36" s="12">
         <v>67</v>
       </c>
-      <c r="L36" s="11">
+      <c r="K36" s="11">
         <v>17</v>
       </c>
-      <c r="M36" s="10">
+      <c r="L36" s="10">
         <v>5</v>
       </c>
-      <c r="N36" s="12">
+      <c r="M36" s="12">
         <v>0</v>
       </c>
-      <c r="O36" s="2"/>
-    </row>
-    <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="10">
-        <v>1343</v>
-      </c>
-      <c r="C37" s="10">
         <v>106</v>
       </c>
-      <c r="D37" s="9">
+      <c r="C37" s="9">
         <v>85</v>
       </c>
+      <c r="D37" s="10">
+        <v>106</v>
+      </c>
       <c r="E37" s="10">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="F37" s="10">
-        <v>57</v>
-      </c>
-      <c r="G37" s="10">
         <v>62</v>
       </c>
+      <c r="G37" s="12">
+        <v>71</v>
+      </c>
       <c r="H37" s="12">
-        <v>71</v>
-      </c>
-      <c r="I37" s="12">
         <v>132</v>
       </c>
-      <c r="J37" s="10">
+      <c r="I37" s="10">
         <v>211</v>
       </c>
-      <c r="K37" s="27">
+      <c r="J37" s="27">
         <v>172</v>
       </c>
-      <c r="L37" s="9">
+      <c r="K37" s="9">
         <v>145</v>
       </c>
-      <c r="M37" s="10">
+      <c r="L37" s="10">
         <v>122</v>
       </c>
-      <c r="N37" s="12">
+      <c r="M37" s="12">
         <v>74</v>
       </c>
-      <c r="O37" s="2"/>
-    </row>
-    <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="24" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="10">
-        <v>719</v>
-      </c>
-      <c r="C38" s="10">
         <v>96</v>
       </c>
-      <c r="D38" s="9">
+      <c r="C38" s="9">
         <v>88</v>
       </c>
+      <c r="D38" s="10">
+        <v>71</v>
+      </c>
       <c r="E38" s="10">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F38" s="10">
+        <v>24</v>
+      </c>
+      <c r="G38" s="12">
+        <v>38</v>
+      </c>
+      <c r="H38" s="12">
+        <v>73</v>
+      </c>
+      <c r="I38" s="10">
+        <v>86</v>
+      </c>
+      <c r="J38" s="10">
+        <v>73</v>
+      </c>
+      <c r="K38" s="9">
+        <v>54</v>
+      </c>
+      <c r="L38" s="10">
+        <v>38</v>
+      </c>
+      <c r="M38" s="12">
         <v>39</v>
       </c>
-      <c r="G38" s="10">
-        <v>24</v>
-      </c>
-      <c r="H38" s="12">
-        <v>38</v>
-      </c>
-      <c r="I38" s="12">
-        <v>73</v>
-      </c>
-      <c r="J38" s="10">
-        <v>86</v>
-      </c>
-      <c r="K38" s="10">
-        <v>73</v>
-      </c>
-      <c r="L38" s="9">
-        <v>54</v>
-      </c>
-      <c r="M38" s="10">
-        <v>38</v>
-      </c>
-      <c r="N38" s="12">
-        <v>39</v>
-      </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="26" t="s">
         <v>87</v>
       </c>
       <c r="B39" s="10">
-        <v>1102</v>
-      </c>
-      <c r="C39" s="10">
         <v>105</v>
       </c>
-      <c r="D39" s="9">
+      <c r="C39" s="9">
         <v>72</v>
       </c>
+      <c r="D39" s="10">
+        <v>70</v>
+      </c>
       <c r="E39" s="10">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F39" s="10">
-        <v>61</v>
-      </c>
-      <c r="G39" s="10">
         <v>90</v>
       </c>
+      <c r="G39" s="12">
+        <v>103</v>
+      </c>
       <c r="H39" s="12">
-        <v>103</v>
-      </c>
-      <c r="I39" s="12">
         <v>166</v>
       </c>
+      <c r="I39" s="10">
+        <v>149</v>
+      </c>
       <c r="J39" s="10">
-        <v>149</v>
-      </c>
-      <c r="K39" s="10">
         <v>91</v>
       </c>
-      <c r="L39" s="9">
+      <c r="K39" s="9">
         <v>86</v>
       </c>
-      <c r="M39" s="10">
+      <c r="L39" s="10">
         <v>85</v>
       </c>
-      <c r="N39" s="12">
+      <c r="M39" s="12">
         <v>24</v>
       </c>
-      <c r="O39" s="2"/>
-    </row>
-    <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="24" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="10">
-        <v>1180</v>
-      </c>
-      <c r="C40" s="10">
         <v>89</v>
       </c>
-      <c r="D40" s="9">
+      <c r="C40" s="9">
         <v>80</v>
       </c>
+      <c r="D40" s="10">
+        <v>102</v>
+      </c>
       <c r="E40" s="10">
+        <v>81</v>
+      </c>
+      <c r="F40" s="10">
+        <v>84</v>
+      </c>
+      <c r="G40" s="12">
+        <v>125</v>
+      </c>
+      <c r="H40" s="12">
+        <v>137</v>
+      </c>
+      <c r="I40" s="10">
         <v>102</v>
       </c>
-      <c r="F40" s="10">
-        <v>81</v>
-      </c>
-      <c r="G40" s="10">
-        <v>84</v>
-      </c>
-      <c r="H40" s="12">
-        <v>125</v>
-      </c>
-      <c r="I40" s="12">
-        <v>137</v>
-      </c>
       <c r="J40" s="10">
-        <v>102</v>
-      </c>
-      <c r="K40" s="10">
         <v>88</v>
       </c>
-      <c r="L40" s="9">
+      <c r="K40" s="9">
         <v>108</v>
       </c>
-      <c r="M40" s="10">
+      <c r="L40" s="10">
         <v>111</v>
       </c>
-      <c r="N40" s="12">
+      <c r="M40" s="12">
         <v>73</v>
       </c>
-      <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="10">
-        <v>1182</v>
-      </c>
-      <c r="C41" s="10">
         <v>74</v>
       </c>
-      <c r="D41" s="9">
+      <c r="C41" s="9">
         <v>51</v>
       </c>
+      <c r="D41" s="10">
+        <v>75</v>
+      </c>
       <c r="E41" s="10">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="F41" s="10">
-        <v>198</v>
-      </c>
-      <c r="G41" s="10">
         <v>239</v>
       </c>
+      <c r="G41" s="12">
+        <v>228</v>
+      </c>
       <c r="H41" s="12">
-        <v>228</v>
-      </c>
-      <c r="I41" s="12">
         <v>148</v>
       </c>
+      <c r="I41" s="10">
+        <v>60</v>
+      </c>
       <c r="J41" s="10">
-        <v>60</v>
-      </c>
-      <c r="K41" s="10">
         <v>44</v>
       </c>
-      <c r="L41" s="9">
+      <c r="K41" s="9">
         <v>26</v>
       </c>
-      <c r="M41" s="10">
+      <c r="L41" s="10">
         <v>19</v>
       </c>
-      <c r="N41" s="12">
+      <c r="M41" s="12">
         <v>20</v>
       </c>
-      <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B42" s="10">
-        <v>1378</v>
+        <v>157</v>
       </c>
       <c r="C42" s="10">
-        <v>157</v>
-      </c>
-      <c r="D42" s="10">
         <v>72</v>
       </c>
-      <c r="E42" s="9">
+      <c r="D42" s="9">
         <v>92</v>
       </c>
+      <c r="E42" s="10">
+        <v>89</v>
+      </c>
       <c r="F42" s="10">
-        <v>89</v>
-      </c>
-      <c r="G42" s="10">
         <v>110</v>
       </c>
+      <c r="G42" s="12">
+        <v>192</v>
+      </c>
       <c r="H42" s="12">
-        <v>192</v>
-      </c>
-      <c r="I42" s="12">
         <v>184</v>
       </c>
+      <c r="I42" s="10">
+        <v>136</v>
+      </c>
       <c r="J42" s="10">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="K42" s="10">
-        <v>82</v>
-      </c>
-      <c r="L42" s="10">
         <v>94</v>
       </c>
-      <c r="M42" s="9">
+      <c r="L42" s="9">
         <v>98</v>
       </c>
-      <c r="N42" s="12">
+      <c r="M42" s="12">
         <v>72</v>
       </c>
-      <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="12">
-        <v>945</v>
-      </c>
-      <c r="C43" s="10">
+      <c r="B43" s="10">
         <v>18</v>
       </c>
-      <c r="D43" s="12">
+      <c r="C43" s="12">
         <v>5</v>
       </c>
-      <c r="E43" s="11">
+      <c r="D43" s="11">
         <v>7</v>
       </c>
+      <c r="E43" s="12">
+        <v>12</v>
+      </c>
       <c r="F43" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G43" s="12">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c r="H43" s="12">
-        <v>215</v>
+        <v>316</v>
       </c>
       <c r="I43" s="12">
-        <v>316</v>
+        <v>197</v>
       </c>
       <c r="J43" s="12">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="K43" s="12">
-        <v>79</v>
-      </c>
-      <c r="L43" s="12">
         <v>28</v>
       </c>
-      <c r="M43" s="9">
+      <c r="L43" s="9">
         <v>5</v>
       </c>
-      <c r="N43" s="12">
+      <c r="M43" s="12">
         <v>2</v>
       </c>
-      <c r="O43" s="2"/>
-    </row>
-    <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="12">
-        <v>3105</v>
-      </c>
-      <c r="C44" s="10">
+      <c r="B44" s="10">
         <v>48</v>
       </c>
-      <c r="D44" s="12">
+      <c r="C44" s="12">
         <v>64</v>
       </c>
-      <c r="E44" s="11">
+      <c r="D44" s="11">
         <v>97</v>
       </c>
+      <c r="E44" s="12">
+        <v>149</v>
+      </c>
       <c r="F44" s="12">
-        <v>149</v>
+        <v>602</v>
       </c>
       <c r="G44" s="12">
-        <v>602</v>
+        <v>1150</v>
       </c>
       <c r="H44" s="12">
-        <v>1150</v>
+        <v>801</v>
       </c>
       <c r="I44" s="12">
-        <v>801</v>
+        <v>143</v>
       </c>
       <c r="J44" s="12">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="K44" s="12">
-        <v>22</v>
-      </c>
-      <c r="L44" s="12">
         <v>20</v>
       </c>
-      <c r="M44" s="9">
+      <c r="L44" s="9">
         <v>8</v>
       </c>
-      <c r="N44" s="12">
+      <c r="M44" s="12">
         <v>1</v>
       </c>
-      <c r="O44" s="2"/>
-    </row>
-    <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B45" s="10">
-        <v>737</v>
+        <v>50</v>
       </c>
       <c r="C45" s="10">
-        <v>50</v>
-      </c>
-      <c r="D45" s="10">
         <v>40</v>
       </c>
-      <c r="E45" s="9">
+      <c r="D45" s="9">
         <v>49</v>
       </c>
+      <c r="E45" s="10">
+        <v>48</v>
+      </c>
       <c r="F45" s="10">
-        <v>48</v>
-      </c>
-      <c r="G45" s="10">
         <v>71</v>
       </c>
+      <c r="G45" s="12">
+        <v>85</v>
+      </c>
       <c r="H45" s="12">
-        <v>85</v>
-      </c>
-      <c r="I45" s="12">
         <v>87</v>
       </c>
+      <c r="I45" s="10">
+        <v>96</v>
+      </c>
       <c r="J45" s="10">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="K45" s="10">
-        <v>59</v>
-      </c>
-      <c r="L45" s="10">
         <v>75</v>
       </c>
-      <c r="M45" s="9">
+      <c r="L45" s="9">
         <v>51</v>
       </c>
-      <c r="N45" s="12">
+      <c r="M45" s="12">
         <v>26</v>
       </c>
-      <c r="O45" s="2"/>
-    </row>
-    <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="12">
-        <v>731</v>
-      </c>
-      <c r="C46" s="10">
+      <c r="B46" s="10">
         <v>54</v>
       </c>
-      <c r="D46" s="12">
+      <c r="C46" s="12">
         <v>53</v>
       </c>
-      <c r="E46" s="11">
+      <c r="D46" s="11">
         <v>66</v>
       </c>
+      <c r="E46" s="12">
+        <v>62</v>
+      </c>
       <c r="F46" s="12">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G46" s="12">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="H46" s="12">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="I46" s="12">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="J46" s="12">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="K46" s="12">
-        <v>31</v>
-      </c>
-      <c r="L46" s="12">
         <v>21</v>
       </c>
-      <c r="M46" s="9">
+      <c r="L46" s="9">
         <v>23</v>
       </c>
-      <c r="N46" s="12">
+      <c r="M46" s="12">
         <v>12</v>
       </c>
-      <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="12">
-        <v>1245</v>
-      </c>
-      <c r="C47" s="10">
+      <c r="B47" s="10">
         <v>69</v>
       </c>
-      <c r="D47" s="12">
+      <c r="C47" s="12">
         <v>68</v>
       </c>
-      <c r="E47" s="11">
+      <c r="D47" s="11">
         <v>56</v>
       </c>
+      <c r="E47" s="12">
+        <v>96</v>
+      </c>
       <c r="F47" s="12">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="G47" s="12">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="H47" s="12">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="I47" s="12">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="J47" s="12">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="K47" s="12">
-        <v>112</v>
-      </c>
-      <c r="L47" s="12">
         <v>51</v>
       </c>
-      <c r="M47" s="9">
+      <c r="L47" s="9">
         <v>38</v>
       </c>
-      <c r="N47" s="12">
+      <c r="M47" s="12">
         <v>12</v>
       </c>
-      <c r="O47" s="2"/>
-    </row>
-    <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="12">
-        <v>992</v>
-      </c>
-      <c r="C48" s="10">
+      <c r="B48" s="10">
         <v>10</v>
       </c>
-      <c r="D48" s="12">
+      <c r="C48" s="12">
         <v>6</v>
       </c>
-      <c r="E48" s="11">
+      <c r="D48" s="11">
         <v>39</v>
       </c>
+      <c r="E48" s="12">
+        <v>51</v>
+      </c>
       <c r="F48" s="12">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="G48" s="12">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="H48" s="12">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="I48" s="12">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="J48" s="12">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="K48" s="12">
-        <v>80</v>
-      </c>
-      <c r="L48" s="12">
         <v>32</v>
       </c>
-      <c r="M48" s="9">
+      <c r="L48" s="9">
         <v>24</v>
       </c>
-      <c r="N48" s="12">
+      <c r="M48" s="12">
         <v>3</v>
       </c>
-      <c r="O48" s="2"/>
-    </row>
-    <row r="49" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B49" s="10">
-        <v>2263</v>
+        <v>25</v>
       </c>
       <c r="C49" s="10">
-        <v>25</v>
-      </c>
-      <c r="D49" s="10">
         <v>35</v>
       </c>
-      <c r="E49" s="9">
+      <c r="D49" s="9">
         <v>132</v>
       </c>
+      <c r="E49" s="10">
+        <v>296</v>
+      </c>
       <c r="F49" s="10">
-        <v>296</v>
-      </c>
-      <c r="G49" s="10">
         <v>331</v>
       </c>
+      <c r="G49" s="12">
+        <v>474</v>
+      </c>
       <c r="H49" s="12">
-        <v>474</v>
-      </c>
-      <c r="I49" s="12">
         <v>315</v>
       </c>
+      <c r="I49" s="10">
+        <v>254</v>
+      </c>
       <c r="J49" s="10">
-        <v>254</v>
+        <v>155</v>
       </c>
       <c r="K49" s="10">
-        <v>155</v>
-      </c>
-      <c r="L49" s="10">
         <v>99</v>
       </c>
-      <c r="M49" s="9">
+      <c r="L49" s="9">
         <v>77</v>
       </c>
-      <c r="N49" s="12">
+      <c r="M49" s="12">
         <v>70</v>
       </c>
-      <c r="O49" s="2"/>
-    </row>
-    <row r="50" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B50" s="10">
-        <v>1020</v>
+        <v>34</v>
       </c>
       <c r="C50" s="10">
-        <v>34</v>
-      </c>
-      <c r="D50" s="10">
         <v>25</v>
       </c>
-      <c r="E50" s="9">
+      <c r="D50" s="9">
         <v>39</v>
       </c>
+      <c r="E50" s="10">
+        <v>49</v>
+      </c>
       <c r="F50" s="10">
-        <v>49</v>
-      </c>
-      <c r="G50" s="10">
         <v>101</v>
       </c>
+      <c r="G50" s="12">
+        <v>192</v>
+      </c>
       <c r="H50" s="12">
-        <v>192</v>
-      </c>
-      <c r="I50" s="12">
         <v>251</v>
       </c>
+      <c r="I50" s="10">
+        <v>177</v>
+      </c>
       <c r="J50" s="10">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="K50" s="10">
-        <v>90</v>
-      </c>
-      <c r="L50" s="10">
         <v>29</v>
       </c>
-      <c r="M50" s="9">
+      <c r="L50" s="9">
         <v>23</v>
       </c>
-      <c r="N50" s="12">
+      <c r="M50" s="12">
         <v>10</v>
       </c>
-      <c r="O50" s="2"/>
-    </row>
-    <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="10">
-        <v>417</v>
+        <v>39</v>
       </c>
       <c r="C51" s="10">
-        <v>39</v>
-      </c>
-      <c r="D51" s="10">
         <v>29</v>
       </c>
-      <c r="E51" s="9">
+      <c r="D51" s="9">
         <v>43</v>
       </c>
+      <c r="E51" s="10">
+        <v>31</v>
+      </c>
       <c r="F51" s="10">
-        <v>31</v>
-      </c>
-      <c r="G51" s="10">
         <v>34</v>
       </c>
+      <c r="G51" s="12">
+        <v>46</v>
+      </c>
       <c r="H51" s="12">
-        <v>46</v>
-      </c>
-      <c r="I51" s="12">
         <v>72</v>
       </c>
+      <c r="I51" s="10">
+        <v>41</v>
+      </c>
       <c r="J51" s="10">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K51" s="10">
-        <v>30</v>
-      </c>
-      <c r="L51" s="10">
         <v>19</v>
       </c>
-      <c r="M51" s="9">
+      <c r="L51" s="9">
         <v>16</v>
       </c>
-      <c r="N51" s="12">
+      <c r="M51" s="12">
         <v>17</v>
       </c>
-      <c r="O51" s="2"/>
-    </row>
-    <row r="52" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B52" s="10">
-        <v>298</v>
+        <v>15</v>
       </c>
       <c r="C52" s="10">
+        <v>11</v>
+      </c>
+      <c r="D52" s="9">
+        <v>18</v>
+      </c>
+      <c r="E52" s="10">
+        <v>29</v>
+      </c>
+      <c r="F52" s="10">
+        <v>42</v>
+      </c>
+      <c r="G52" s="12">
+        <v>60</v>
+      </c>
+      <c r="H52" s="12">
+        <v>38</v>
+      </c>
+      <c r="I52" s="10">
+        <v>38</v>
+      </c>
+      <c r="J52" s="10">
+        <v>12</v>
+      </c>
+      <c r="K52" s="10">
         <v>15</v>
       </c>
-      <c r="D52" s="10">
-        <v>11</v>
-      </c>
-      <c r="E52" s="9">
-        <v>18</v>
-      </c>
-      <c r="F52" s="10">
-        <v>29</v>
-      </c>
-      <c r="G52" s="10">
-        <v>42</v>
-      </c>
-      <c r="H52" s="12">
-        <v>60</v>
-      </c>
-      <c r="I52" s="12">
-        <v>38</v>
-      </c>
-      <c r="J52" s="10">
-        <v>38</v>
-      </c>
-      <c r="K52" s="10">
-        <v>12</v>
-      </c>
-      <c r="L52" s="10">
+      <c r="L52" s="9">
         <v>15</v>
       </c>
-      <c r="M52" s="9">
-        <v>15</v>
-      </c>
-      <c r="N52" s="12">
+      <c r="M52" s="12">
         <v>5</v>
       </c>
-      <c r="O52" s="2"/>
-    </row>
-    <row r="53" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B53" s="10">
-        <v>1333</v>
+        <v>110</v>
       </c>
       <c r="C53" s="10">
-        <v>110</v>
-      </c>
-      <c r="D53" s="10">
         <v>107</v>
       </c>
-      <c r="E53" s="9">
+      <c r="D53" s="9">
         <v>75</v>
       </c>
+      <c r="E53" s="10">
+        <v>61</v>
+      </c>
       <c r="F53" s="10">
-        <v>61</v>
-      </c>
-      <c r="G53" s="10">
         <v>43</v>
       </c>
+      <c r="G53" s="12">
+        <v>49</v>
+      </c>
       <c r="H53" s="12">
-        <v>49</v>
-      </c>
-      <c r="I53" s="12">
         <v>164</v>
       </c>
+      <c r="I53" s="10">
+        <v>206</v>
+      </c>
       <c r="J53" s="10">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="K53" s="10">
-        <v>170</v>
-      </c>
-      <c r="L53" s="10">
         <v>152</v>
       </c>
-      <c r="M53" s="9">
+      <c r="L53" s="9">
         <v>133</v>
       </c>
-      <c r="N53" s="12">
+      <c r="M53" s="12">
         <v>63</v>
       </c>
-      <c r="O53" s="2"/>
-    </row>
-    <row r="54" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="10">
-        <v>1955</v>
+        <v>205</v>
       </c>
       <c r="C54" s="10">
-        <v>205</v>
-      </c>
-      <c r="D54" s="10">
         <v>143</v>
       </c>
-      <c r="E54" s="9">
+      <c r="D54" s="9">
         <v>144</v>
       </c>
+      <c r="E54" s="10">
+        <v>124</v>
+      </c>
       <c r="F54" s="10">
-        <v>124</v>
-      </c>
-      <c r="G54" s="10">
         <v>153</v>
       </c>
+      <c r="G54" s="12">
+        <v>235</v>
+      </c>
       <c r="H54" s="12">
-        <v>235</v>
-      </c>
-      <c r="I54" s="12">
         <v>278</v>
       </c>
+      <c r="I54" s="10">
+        <v>223</v>
+      </c>
       <c r="J54" s="10">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="K54" s="10">
-        <v>163</v>
-      </c>
-      <c r="L54" s="10">
         <v>117</v>
       </c>
-      <c r="M54" s="9">
+      <c r="L54" s="9">
         <v>117</v>
       </c>
-      <c r="N54" s="12">
+      <c r="M54" s="12">
         <v>53</v>
       </c>
-      <c r="O54" s="2"/>
-    </row>
-    <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="12">
-        <v>4142</v>
-      </c>
-      <c r="C55" s="10">
+      <c r="B55" s="10">
         <v>104</v>
       </c>
-      <c r="D55" s="12">
+      <c r="C55" s="12">
         <v>103</v>
       </c>
-      <c r="E55" s="11">
+      <c r="D55" s="11">
         <v>143</v>
       </c>
+      <c r="E55" s="12">
+        <v>205</v>
+      </c>
       <c r="F55" s="12">
-        <v>205</v>
+        <v>470</v>
       </c>
       <c r="G55" s="12">
-        <v>470</v>
+        <v>930</v>
       </c>
       <c r="H55" s="12">
-        <v>930</v>
+        <v>1005</v>
       </c>
       <c r="I55" s="12">
-        <v>1005</v>
+        <v>764</v>
       </c>
       <c r="J55" s="12">
-        <v>764</v>
+        <v>298</v>
       </c>
       <c r="K55" s="12">
-        <v>298</v>
-      </c>
-      <c r="L55" s="12">
         <v>95</v>
       </c>
-      <c r="M55" s="9">
+      <c r="L55" s="9">
         <v>20</v>
       </c>
-      <c r="N55" s="12">
+      <c r="M55" s="12">
         <v>5</v>
       </c>
-      <c r="O55" s="2"/>
-    </row>
-    <row r="56" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B56" s="10">
-        <v>639</v>
+        <v>23</v>
       </c>
       <c r="C56" s="10">
-        <v>23</v>
-      </c>
-      <c r="D56" s="10">
         <v>14</v>
       </c>
-      <c r="E56" s="9">
+      <c r="D56" s="9">
         <v>33</v>
       </c>
+      <c r="E56" s="10">
+        <v>38</v>
+      </c>
       <c r="F56" s="10">
-        <v>38</v>
-      </c>
-      <c r="G56" s="10">
         <v>72</v>
       </c>
+      <c r="G56" s="12">
+        <v>94</v>
+      </c>
       <c r="H56" s="12">
-        <v>94</v>
-      </c>
-      <c r="I56" s="12">
         <v>126</v>
       </c>
+      <c r="I56" s="10">
+        <v>118</v>
+      </c>
       <c r="J56" s="10">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="K56" s="10">
-        <v>60</v>
-      </c>
-      <c r="L56" s="10">
         <v>39</v>
       </c>
-      <c r="M56" s="9">
+      <c r="L56" s="9">
         <v>14</v>
       </c>
-      <c r="N56" s="12">
+      <c r="M56" s="12">
         <v>8</v>
       </c>
-      <c r="O56" s="2"/>
-    </row>
-    <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="12">
-        <v>788</v>
-      </c>
-      <c r="C57" s="10">
+      <c r="B57" s="10">
         <v>26</v>
       </c>
-      <c r="D57" s="12">
+      <c r="C57" s="12">
         <v>21</v>
       </c>
-      <c r="E57" s="11">
+      <c r="D57" s="11">
         <v>90</v>
       </c>
+      <c r="E57" s="12">
+        <v>74</v>
+      </c>
       <c r="F57" s="12">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="G57" s="12">
-        <v>116</v>
+        <v>310</v>
       </c>
       <c r="H57" s="12">
-        <v>310</v>
+        <v>119</v>
       </c>
       <c r="I57" s="12">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="J57" s="12">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K57" s="12">
-        <v>6</v>
-      </c>
-      <c r="L57" s="12">
         <v>3</v>
       </c>
-      <c r="M57" s="9">
+      <c r="L57" s="9">
         <v>2</v>
       </c>
-      <c r="N57" s="12">
+      <c r="M57" s="12">
         <v>0</v>
       </c>
-      <c r="O57" s="2"/>
-    </row>
-    <row r="58" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N57" s="2"/>
+    </row>
+    <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B58" s="10">
-        <v>1778</v>
+        <v>201</v>
       </c>
       <c r="C58" s="10">
-        <v>201</v>
-      </c>
-      <c r="D58" s="10">
         <v>129</v>
       </c>
-      <c r="E58" s="9">
+      <c r="D58" s="9">
         <v>161</v>
       </c>
+      <c r="E58" s="10">
+        <v>134</v>
+      </c>
       <c r="F58" s="10">
-        <v>134</v>
-      </c>
-      <c r="G58" s="10">
         <v>163</v>
       </c>
+      <c r="G58" s="12">
+        <v>81</v>
+      </c>
       <c r="H58" s="12">
-        <v>81</v>
-      </c>
-      <c r="I58" s="12">
         <v>121</v>
       </c>
+      <c r="I58" s="10">
+        <v>224</v>
+      </c>
       <c r="J58" s="10">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="K58" s="10">
-        <v>173</v>
-      </c>
-      <c r="L58" s="10">
         <v>161</v>
       </c>
-      <c r="M58" s="9">
+      <c r="L58" s="9">
         <v>150</v>
       </c>
-      <c r="N58" s="12">
+      <c r="M58" s="12">
         <v>80</v>
       </c>
-      <c r="O58" s="2"/>
-    </row>
-    <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B59" s="10">
-        <v>1009</v>
+        <v>147</v>
       </c>
       <c r="C59" s="10">
-        <v>147</v>
-      </c>
-      <c r="D59" s="10">
         <v>100</v>
       </c>
-      <c r="E59" s="9">
+      <c r="D59" s="9">
         <v>71</v>
       </c>
+      <c r="E59" s="10">
+        <v>43</v>
+      </c>
       <c r="F59" s="10">
-        <v>43</v>
-      </c>
-      <c r="G59" s="10">
         <v>37</v>
       </c>
+      <c r="G59" s="12">
+        <v>42</v>
+      </c>
       <c r="H59" s="12">
-        <v>42</v>
-      </c>
-      <c r="I59" s="12">
         <v>99</v>
       </c>
+      <c r="I59" s="10">
+        <v>118</v>
+      </c>
       <c r="J59" s="10">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="K59" s="10">
-        <v>92</v>
-      </c>
-      <c r="L59" s="10">
         <v>91</v>
       </c>
-      <c r="M59" s="9">
+      <c r="L59" s="9">
         <v>115</v>
       </c>
-      <c r="N59" s="12">
+      <c r="M59" s="12">
         <v>54</v>
       </c>
-      <c r="O59" s="2"/>
-    </row>
-    <row r="60" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B60" s="10">
-        <v>271</v>
+        <v>22</v>
       </c>
       <c r="C60" s="10">
-        <v>22</v>
-      </c>
-      <c r="D60" s="10">
         <v>23</v>
       </c>
-      <c r="E60" s="9">
+      <c r="D60" s="9">
         <v>35</v>
       </c>
+      <c r="E60" s="10">
+        <v>23</v>
+      </c>
       <c r="F60" s="10">
-        <v>23</v>
-      </c>
-      <c r="G60" s="10">
         <v>11</v>
       </c>
+      <c r="G60" s="12">
+        <v>11</v>
+      </c>
       <c r="H60" s="12">
-        <v>11</v>
-      </c>
-      <c r="I60" s="12">
         <v>20</v>
       </c>
+      <c r="I60" s="10">
+        <v>34</v>
+      </c>
       <c r="J60" s="10">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K60" s="10">
+        <v>35</v>
+      </c>
+      <c r="L60" s="9">
         <v>25</v>
       </c>
-      <c r="L60" s="10">
-        <v>35</v>
-      </c>
-      <c r="M60" s="9">
-        <v>25</v>
-      </c>
-      <c r="N60" s="12">
+      <c r="M60" s="12">
         <v>7</v>
       </c>
-      <c r="O60" s="2"/>
-    </row>
-    <row r="61" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="10">
-        <v>916</v>
+        <v>40</v>
       </c>
       <c r="C61" s="10">
-        <v>40</v>
-      </c>
-      <c r="D61" s="10">
         <v>19</v>
       </c>
-      <c r="E61" s="9">
+      <c r="D61" s="9">
         <v>52</v>
       </c>
+      <c r="E61" s="10">
+        <v>27</v>
+      </c>
       <c r="F61" s="10">
-        <v>27</v>
-      </c>
-      <c r="G61" s="10">
         <v>52</v>
       </c>
+      <c r="G61" s="12">
+        <v>59</v>
+      </c>
       <c r="H61" s="12">
-        <v>59</v>
-      </c>
-      <c r="I61" s="12">
         <v>148</v>
       </c>
+      <c r="I61" s="10">
+        <v>234</v>
+      </c>
       <c r="J61" s="10">
-        <v>234</v>
+        <v>106</v>
       </c>
       <c r="K61" s="10">
-        <v>106</v>
-      </c>
-      <c r="L61" s="10">
         <v>84</v>
       </c>
-      <c r="M61" s="9">
+      <c r="L61" s="9">
         <v>72</v>
       </c>
-      <c r="N61" s="12">
+      <c r="M61" s="12">
         <v>23</v>
       </c>
-      <c r="O61" s="2"/>
-    </row>
-    <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B62" s="10">
-        <v>376</v>
+        <v>37</v>
       </c>
       <c r="C62" s="10">
-        <v>37</v>
-      </c>
-      <c r="D62" s="10">
         <v>17</v>
       </c>
-      <c r="E62" s="9">
+      <c r="D62" s="9">
         <v>22</v>
       </c>
+      <c r="E62" s="10">
+        <v>27</v>
+      </c>
       <c r="F62" s="10">
-        <v>27</v>
-      </c>
-      <c r="G62" s="10">
         <v>53</v>
       </c>
+      <c r="G62" s="12">
+        <v>60</v>
+      </c>
       <c r="H62" s="12">
-        <v>60</v>
-      </c>
-      <c r="I62" s="12">
         <v>68</v>
       </c>
+      <c r="I62" s="10">
+        <v>32</v>
+      </c>
       <c r="J62" s="10">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K62" s="10">
-        <v>18</v>
-      </c>
-      <c r="L62" s="10">
         <v>21</v>
       </c>
-      <c r="M62" s="9">
+      <c r="L62" s="9">
         <v>11</v>
       </c>
-      <c r="N62" s="12">
+      <c r="M62" s="12">
         <v>10</v>
       </c>
-      <c r="O62" s="2"/>
-    </row>
-    <row r="63" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="12">
-        <v>4683</v>
-      </c>
-      <c r="C63" s="10">
+      <c r="B63" s="10">
         <v>107</v>
       </c>
-      <c r="D63" s="12">
+      <c r="C63" s="12">
         <v>115</v>
       </c>
-      <c r="E63" s="11">
+      <c r="D63" s="11">
         <v>192</v>
       </c>
+      <c r="E63" s="12">
+        <v>281</v>
+      </c>
       <c r="F63" s="12">
-        <v>281</v>
+        <v>628</v>
       </c>
       <c r="G63" s="12">
-        <v>628</v>
+        <v>1175</v>
       </c>
       <c r="H63" s="12">
-        <v>1175</v>
+        <v>1065</v>
       </c>
       <c r="I63" s="12">
-        <v>1065</v>
+        <v>621</v>
       </c>
       <c r="J63" s="12">
-        <v>621</v>
+        <v>305</v>
       </c>
       <c r="K63" s="12">
-        <v>305</v>
-      </c>
-      <c r="L63" s="12">
         <v>125</v>
       </c>
-      <c r="M63" s="9">
+      <c r="L63" s="9">
         <v>53</v>
       </c>
-      <c r="N63" s="12">
+      <c r="M63" s="12">
         <v>16</v>
       </c>
-      <c r="O63" s="2"/>
-    </row>
-    <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N63" s="2"/>
+    </row>
+    <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B64" s="10">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="C64" s="10">
-        <v>7</v>
-      </c>
-      <c r="D64" s="10">
         <v>3</v>
       </c>
-      <c r="E64" s="9">
+      <c r="D64" s="9">
         <v>11</v>
       </c>
+      <c r="E64" s="10">
+        <v>3</v>
+      </c>
       <c r="F64" s="10">
+        <v>4</v>
+      </c>
+      <c r="G64" s="12">
+        <v>30</v>
+      </c>
+      <c r="H64" s="12">
+        <v>18</v>
+      </c>
+      <c r="I64" s="10">
+        <v>12</v>
+      </c>
+      <c r="J64" s="10">
         <v>3</v>
       </c>
-      <c r="G64" s="10">
-        <v>4</v>
-      </c>
-      <c r="H64" s="12">
-        <v>30</v>
-      </c>
-      <c r="I64" s="12">
-        <v>18</v>
-      </c>
-      <c r="J64" s="10">
-        <v>12</v>
-      </c>
       <c r="K64" s="10">
-        <v>3</v>
-      </c>
-      <c r="L64" s="10">
         <v>1</v>
       </c>
-      <c r="M64" s="9">
+      <c r="L64" s="9">
         <v>2</v>
       </c>
-      <c r="N64" s="12">
+      <c r="M64" s="12">
         <v>1</v>
       </c>
-      <c r="O64" s="2"/>
-    </row>
-    <row r="65" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B65" s="10">
-        <v>5636</v>
+        <v>710</v>
       </c>
       <c r="C65" s="10">
-        <v>710</v>
-      </c>
-      <c r="D65" s="10">
         <v>491</v>
       </c>
-      <c r="E65" s="9">
+      <c r="D65" s="9">
         <v>558</v>
       </c>
+      <c r="E65" s="10">
+        <v>489</v>
+      </c>
       <c r="F65" s="10">
-        <v>489</v>
-      </c>
-      <c r="G65" s="10">
         <v>826</v>
       </c>
+      <c r="G65" s="12">
+        <v>1128</v>
+      </c>
       <c r="H65" s="12">
-        <v>1128</v>
-      </c>
-      <c r="I65" s="12">
         <v>752</v>
       </c>
+      <c r="I65" s="10">
+        <v>331</v>
+      </c>
       <c r="J65" s="10">
-        <v>331</v>
+        <v>112</v>
       </c>
       <c r="K65" s="10">
-        <v>112</v>
-      </c>
-      <c r="L65" s="10">
         <v>93</v>
       </c>
-      <c r="M65" s="9">
+      <c r="L65" s="9">
         <v>97</v>
       </c>
-      <c r="N65" s="12">
+      <c r="M65" s="12">
         <v>49</v>
       </c>
-      <c r="O65" s="2"/>
-    </row>
-    <row r="66" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N65" s="2"/>
+    </row>
+    <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="12">
-        <v>679</v>
-      </c>
-      <c r="C66" s="10">
+      <c r="B66" s="10">
         <v>22</v>
       </c>
-      <c r="D66" s="12">
+      <c r="C66" s="12">
         <v>39</v>
       </c>
-      <c r="E66" s="11">
+      <c r="D66" s="11">
         <v>58</v>
+      </c>
+      <c r="E66" s="12">
+        <v>98</v>
       </c>
       <c r="F66" s="12">
         <v>98</v>
       </c>
       <c r="G66" s="12">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H66" s="12">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="I66" s="12">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="J66" s="12">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K66" s="12">
-        <v>51</v>
-      </c>
-      <c r="L66" s="12">
         <v>33</v>
       </c>
-      <c r="M66" s="9">
+      <c r="L66" s="9">
         <v>10</v>
       </c>
-      <c r="N66" s="12">
+      <c r="M66" s="12">
         <v>10</v>
       </c>
-      <c r="O66" s="2"/>
-    </row>
-    <row r="67" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B67" s="10">
-        <v>638</v>
+        <v>98</v>
       </c>
       <c r="C67" s="10">
-        <v>98</v>
-      </c>
-      <c r="D67" s="10">
         <v>68</v>
       </c>
-      <c r="E67" s="9">
+      <c r="D67" s="9">
         <v>61</v>
       </c>
+      <c r="E67" s="10">
+        <v>37</v>
+      </c>
       <c r="F67" s="10">
-        <v>37</v>
-      </c>
-      <c r="G67" s="10">
         <v>24</v>
       </c>
+      <c r="G67" s="12">
+        <v>36</v>
+      </c>
       <c r="H67" s="12">
-        <v>36</v>
-      </c>
-      <c r="I67" s="12">
         <v>41</v>
       </c>
+      <c r="I67" s="10">
+        <v>59</v>
+      </c>
       <c r="J67" s="10">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="K67" s="10">
-        <v>71</v>
-      </c>
-      <c r="L67" s="10">
         <v>60</v>
       </c>
-      <c r="M67" s="9">
+      <c r="L67" s="9">
         <v>63</v>
       </c>
-      <c r="N67" s="12">
+      <c r="M67" s="12">
         <v>20</v>
       </c>
-      <c r="O67" s="2"/>
-    </row>
-    <row r="68" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N67" s="2"/>
+    </row>
+    <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B68" s="10">
-        <v>1585</v>
+        <v>232</v>
       </c>
       <c r="C68" s="10">
-        <v>232</v>
-      </c>
-      <c r="D68" s="10">
         <v>133</v>
       </c>
-      <c r="E68" s="9">
+      <c r="D68" s="9">
         <v>147</v>
       </c>
+      <c r="E68" s="10">
+        <v>153</v>
+      </c>
       <c r="F68" s="10">
-        <v>153</v>
-      </c>
-      <c r="G68" s="10">
         <v>174</v>
       </c>
+      <c r="G68" s="12">
+        <v>231</v>
+      </c>
       <c r="H68" s="12">
-        <v>231</v>
-      </c>
-      <c r="I68" s="12">
         <v>148</v>
       </c>
+      <c r="I68" s="10">
+        <v>139</v>
+      </c>
       <c r="J68" s="10">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="K68" s="10">
-        <v>101</v>
-      </c>
-      <c r="L68" s="10">
         <v>53</v>
       </c>
-      <c r="M68" s="9">
+      <c r="L68" s="9">
         <v>30</v>
       </c>
-      <c r="N68" s="12">
+      <c r="M68" s="12">
         <v>44</v>
       </c>
-      <c r="O68" s="2"/>
-    </row>
-    <row r="69" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N68" s="2"/>
+    </row>
+    <row r="69" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B69" s="12">
-        <v>4089</v>
-      </c>
-      <c r="C69" s="10">
+      <c r="B69" s="10">
         <v>223</v>
       </c>
-      <c r="D69" s="12">
+      <c r="C69" s="12">
         <v>207</v>
       </c>
-      <c r="E69" s="11">
+      <c r="D69" s="11">
         <v>298</v>
       </c>
+      <c r="E69" s="12">
+        <v>292</v>
+      </c>
       <c r="F69" s="12">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="G69" s="12">
-        <v>318</v>
+        <v>706</v>
       </c>
       <c r="H69" s="12">
-        <v>706</v>
+        <v>879</v>
       </c>
       <c r="I69" s="12">
-        <v>879</v>
+        <v>666</v>
       </c>
       <c r="J69" s="12">
-        <v>666</v>
+        <v>349</v>
       </c>
       <c r="K69" s="12">
-        <v>349</v>
-      </c>
-      <c r="L69" s="12">
         <v>113</v>
       </c>
-      <c r="M69" s="9">
+      <c r="L69" s="9">
         <v>38</v>
       </c>
-      <c r="N69" s="12">
+      <c r="M69" s="12">
         <v>0</v>
       </c>
-      <c r="O69" s="2"/>
-    </row>
-    <row r="70" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="12">
-        <v>1364</v>
-      </c>
-      <c r="C70" s="10">
+      <c r="B70" s="10">
         <v>30</v>
       </c>
-      <c r="D70" s="12">
+      <c r="C70" s="12">
         <v>45</v>
       </c>
-      <c r="E70" s="11">
+      <c r="D70" s="11">
         <v>68</v>
       </c>
+      <c r="E70" s="12">
+        <v>85</v>
+      </c>
       <c r="F70" s="12">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="G70" s="12">
-        <v>155</v>
+        <v>308</v>
       </c>
       <c r="H70" s="12">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="I70" s="12">
-        <v>337</v>
+        <v>158</v>
       </c>
       <c r="J70" s="12">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="K70" s="12">
-        <v>100</v>
-      </c>
-      <c r="L70" s="12">
         <v>38</v>
       </c>
-      <c r="M70" s="9">
+      <c r="L70" s="9">
         <v>32</v>
       </c>
-      <c r="N70" s="12">
+      <c r="M70" s="12">
         <v>8</v>
       </c>
-      <c r="O70" s="2"/>
-    </row>
-    <row r="71" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B71" s="10">
-        <v>1129</v>
+        <v>96</v>
       </c>
       <c r="C71" s="10">
-        <v>96</v>
-      </c>
-      <c r="D71" s="10">
         <v>57</v>
       </c>
-      <c r="E71" s="9">
+      <c r="D71" s="9">
         <v>56</v>
       </c>
+      <c r="E71" s="10">
+        <v>82</v>
+      </c>
       <c r="F71" s="10">
-        <v>82</v>
-      </c>
-      <c r="G71" s="10">
         <v>133</v>
       </c>
+      <c r="G71" s="12">
+        <v>221</v>
+      </c>
       <c r="H71" s="12">
-        <v>221</v>
-      </c>
-      <c r="I71" s="12">
         <v>144</v>
       </c>
+      <c r="I71" s="10">
+        <v>129</v>
+      </c>
       <c r="J71" s="10">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="K71" s="10">
         <v>63</v>
       </c>
-      <c r="L71" s="10">
-        <v>63</v>
-      </c>
-      <c r="M71" s="9">
+      <c r="L71" s="9">
         <v>50</v>
       </c>
-      <c r="N71" s="12">
+      <c r="M71" s="12">
         <v>35</v>
       </c>
-      <c r="O71" s="2"/>
-    </row>
-    <row r="72" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N71" s="2"/>
+    </row>
+    <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B72" s="10">
-        <v>706</v>
+        <v>25</v>
       </c>
       <c r="C72" s="10">
-        <v>25</v>
-      </c>
-      <c r="D72" s="10">
         <v>20</v>
       </c>
-      <c r="E72" s="9">
+      <c r="D72" s="9">
         <v>67</v>
       </c>
+      <c r="E72" s="10">
+        <v>80</v>
+      </c>
       <c r="F72" s="10">
-        <v>80</v>
-      </c>
-      <c r="G72" s="10">
         <v>114</v>
       </c>
+      <c r="G72" s="12">
+        <v>169</v>
+      </c>
       <c r="H72" s="12">
-        <v>169</v>
-      </c>
-      <c r="I72" s="12">
         <v>111</v>
       </c>
+      <c r="I72" s="10">
+        <v>53</v>
+      </c>
       <c r="J72" s="10">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K72" s="10">
-        <v>28</v>
-      </c>
-      <c r="L72" s="10">
         <v>15</v>
       </c>
-      <c r="M72" s="9">
+      <c r="L72" s="9">
         <v>15</v>
       </c>
-      <c r="N72" s="12">
+      <c r="M72" s="12">
         <v>9</v>
       </c>
-      <c r="O72" s="2"/>
-    </row>
-    <row r="73" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B73" s="12">
-        <v>3094</v>
-      </c>
-      <c r="C73" s="10">
+      <c r="B73" s="10">
         <v>78</v>
       </c>
-      <c r="D73" s="12">
+      <c r="C73" s="12">
         <v>117</v>
       </c>
-      <c r="E73" s="11">
+      <c r="D73" s="11">
         <v>223</v>
       </c>
+      <c r="E73" s="12">
+        <v>204</v>
+      </c>
       <c r="F73" s="12">
-        <v>204</v>
+        <v>438</v>
       </c>
       <c r="G73" s="12">
-        <v>438</v>
+        <v>741</v>
       </c>
       <c r="H73" s="12">
-        <v>741</v>
+        <v>622</v>
       </c>
       <c r="I73" s="12">
-        <v>622</v>
+        <v>409</v>
       </c>
       <c r="J73" s="12">
-        <v>409</v>
+        <v>146</v>
       </c>
       <c r="K73" s="12">
-        <v>146</v>
-      </c>
-      <c r="L73" s="12">
         <v>74</v>
       </c>
-      <c r="M73" s="9">
+      <c r="L73" s="9">
         <v>27</v>
       </c>
-      <c r="N73" s="12">
+      <c r="M73" s="12">
         <v>15</v>
       </c>
-      <c r="O73" s="2"/>
-    </row>
-    <row r="74" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N73" s="2"/>
+    </row>
+    <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B74" s="12">
-        <v>1280</v>
-      </c>
-      <c r="C74" s="10">
+      <c r="B74" s="10">
         <v>37</v>
       </c>
-      <c r="D74" s="12">
+      <c r="C74" s="12">
         <v>25</v>
       </c>
-      <c r="E74" s="11">
+      <c r="D74" s="11">
         <v>35</v>
       </c>
+      <c r="E74" s="12">
+        <v>48</v>
+      </c>
       <c r="F74" s="12">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="G74" s="12">
-        <v>92</v>
+        <v>277</v>
       </c>
       <c r="H74" s="12">
-        <v>277</v>
+        <v>394</v>
       </c>
       <c r="I74" s="12">
-        <v>394</v>
+        <v>254</v>
       </c>
       <c r="J74" s="12">
-        <v>254</v>
+        <v>89</v>
       </c>
       <c r="K74" s="12">
-        <v>89</v>
-      </c>
-      <c r="L74" s="12">
         <v>19</v>
       </c>
-      <c r="M74" s="9">
+      <c r="L74" s="9">
         <v>9</v>
       </c>
-      <c r="N74" s="12">
+      <c r="M74" s="12">
         <v>1</v>
       </c>
-      <c r="O74" s="2"/>
-    </row>
-    <row r="75" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B75" s="12">
-        <v>439</v>
-      </c>
-      <c r="C75" s="10">
+      <c r="B75" s="10">
         <v>40</v>
       </c>
-      <c r="D75" s="12">
+      <c r="C75" s="12">
         <v>26</v>
       </c>
-      <c r="E75" s="11">
+      <c r="D75" s="11">
         <v>52</v>
       </c>
+      <c r="E75" s="12">
+        <v>51</v>
+      </c>
       <c r="F75" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="G75" s="12">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="H75" s="12">
+        <v>72</v>
+      </c>
+      <c r="I75" s="12">
         <v>53</v>
       </c>
-      <c r="I75" s="12">
-        <v>72</v>
-      </c>
       <c r="J75" s="12">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="K75" s="12">
-        <v>29</v>
-      </c>
-      <c r="L75" s="12">
         <v>18</v>
       </c>
-      <c r="M75" s="9">
+      <c r="L75" s="9">
         <v>19</v>
       </c>
-      <c r="N75" s="12">
+      <c r="M75" s="12">
         <v>1</v>
       </c>
-      <c r="O75" s="2"/>
-    </row>
-    <row r="76" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N75" s="2"/>
+    </row>
+    <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="12">
-        <v>479</v>
-      </c>
-      <c r="C76" s="10">
+      <c r="B76" s="10">
         <v>18</v>
       </c>
-      <c r="D76" s="12">
+      <c r="C76" s="12">
         <v>16</v>
       </c>
-      <c r="E76" s="11">
+      <c r="D76" s="11">
         <v>36</v>
       </c>
+      <c r="E76" s="12">
+        <v>32</v>
+      </c>
       <c r="F76" s="12">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G76" s="12">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="H76" s="12">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="I76" s="12">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="J76" s="12">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="K76" s="12">
-        <v>28</v>
-      </c>
-      <c r="L76" s="12">
         <v>12</v>
       </c>
-      <c r="M76" s="9">
+      <c r="L76" s="9">
         <v>12</v>
       </c>
-      <c r="N76" s="12">
+      <c r="M76" s="12">
         <v>3</v>
       </c>
-      <c r="O76" s="2"/>
-    </row>
-    <row r="77" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N76" s="2"/>
+    </row>
+    <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="31" t="s">
         <v>37</v>
       </c>
       <c r="B77" s="10">
-        <v>495</v>
+        <v>49</v>
       </c>
       <c r="C77" s="10">
-        <v>49</v>
-      </c>
-      <c r="D77" s="10">
         <v>35</v>
       </c>
-      <c r="E77" s="9">
+      <c r="D77" s="9">
         <v>40</v>
       </c>
+      <c r="E77" s="10">
+        <v>59</v>
+      </c>
       <c r="F77" s="10">
-        <v>59</v>
-      </c>
-      <c r="G77" s="10">
         <v>64</v>
       </c>
+      <c r="G77" s="12">
+        <v>73</v>
+      </c>
       <c r="H77" s="12">
-        <v>73</v>
-      </c>
-      <c r="I77" s="12">
         <v>44</v>
       </c>
+      <c r="I77" s="10">
+        <v>41</v>
+      </c>
       <c r="J77" s="10">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="K77" s="10">
-        <v>26</v>
-      </c>
-      <c r="L77" s="10">
         <v>19</v>
       </c>
-      <c r="M77" s="9">
+      <c r="L77" s="9">
         <v>23</v>
       </c>
-      <c r="N77" s="12">
+      <c r="M77" s="12">
         <v>22</v>
       </c>
-      <c r="O77" s="2"/>
-    </row>
-    <row r="78" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N77" s="2"/>
+    </row>
+    <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B78" s="12">
-        <v>857</v>
-      </c>
-      <c r="C78" s="10">
+      <c r="B78" s="10">
         <v>25</v>
       </c>
-      <c r="D78" s="12">
+      <c r="C78" s="12">
         <v>28</v>
       </c>
-      <c r="E78" s="11">
+      <c r="D78" s="11">
         <v>19</v>
       </c>
+      <c r="E78" s="12">
+        <v>33</v>
+      </c>
       <c r="F78" s="12">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="G78" s="12">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="H78" s="12">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="I78" s="12">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="J78" s="12">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="K78" s="12">
-        <v>76</v>
-      </c>
-      <c r="L78" s="12">
         <v>32</v>
       </c>
-      <c r="M78" s="9">
+      <c r="L78" s="9">
         <v>5</v>
       </c>
-      <c r="N78" s="12">
+      <c r="M78" s="12">
         <v>1</v>
       </c>
-      <c r="O78" s="2"/>
+      <c r="N78" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:N78">

--- a/2013_dengue_extracted.xlsx
+++ b/2013_dengue_extracted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/Bioinfo/Klimaprojekt/Daten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_9D9F755D16F1BB3D0BF7D20554070900FD5F54F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA57B3EA-A3BF-4887-A51E-5A08C1781A8D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB36267-63A6-4040-997E-D9B07F857B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -852,7 +852,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Reporting areas</t>
+      <t>Jan</t>
     </r>
   </si>
   <si>
@@ -863,7 +863,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Jan</t>
+      <t>Feb</t>
     </r>
   </si>
   <si>
@@ -874,7 +874,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Feb</t>
+      <t>Mar</t>
     </r>
   </si>
   <si>
@@ -885,7 +885,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Mar</t>
+      <t>Apr</t>
     </r>
   </si>
   <si>
@@ -896,7 +896,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Apr</t>
+      <t>May</t>
     </r>
   </si>
   <si>
@@ -907,7 +907,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>May</t>
+      <t>June</t>
     </r>
   </si>
   <si>
@@ -918,7 +918,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>June</t>
+      <t>July</t>
     </r>
   </si>
   <si>
@@ -929,7 +929,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>July</t>
+      <t>Aug</t>
     </r>
   </si>
   <si>
@@ -940,7 +940,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Aug</t>
+      <t>Sept</t>
     </r>
   </si>
   <si>
@@ -951,7 +951,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Sept</t>
+      <t>Oct</t>
     </r>
   </si>
   <si>
@@ -962,7 +962,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Oct</t>
+      <t>Nov</t>
     </r>
   </si>
   <si>
@@ -973,19 +973,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Nov</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Dec</t>
     </r>
+  </si>
+  <si>
+    <t>Reporting_areas</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1138,9 +1130,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1156,9 +1151,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1196,9 +1191,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1231,26 +1226,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1283,26 +1261,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1478,69 +1439,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.59765625" customWidth="1"/>
+    <col min="2" max="3" width="9.3984375" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" customWidth="1"/>
+    <col min="6" max="6" width="9.796875" customWidth="1"/>
+    <col min="7" max="7" width="9.3984375" customWidth="1"/>
+    <col min="8" max="8" width="9.19921875" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" customWidth="1"/>
+    <col min="10" max="10" width="10.796875" customWidth="1"/>
+    <col min="11" max="12" width="10.3984375" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>89</v>
-      </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
@@ -1582,7 +1541,7 @@
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1624,7 +1583,7 @@
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -1666,7 +1625,7 @@
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>38</v>
       </c>
@@ -1708,7 +1667,7 @@
       </c>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
@@ -1750,7 +1709,7 @@
       </c>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1792,7 +1751,7 @@
       </c>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1834,7 +1793,7 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
         <v>55</v>
       </c>
@@ -1876,7 +1835,7 @@
       </c>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
@@ -1918,7 +1877,7 @@
       </c>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
         <v>58</v>
       </c>
@@ -1960,7 +1919,7 @@
       </c>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
         <v>62</v>
       </c>
@@ -2002,7 +1961,7 @@
       </c>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -2044,7 +2003,7 @@
       </c>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
@@ -2086,7 +2045,7 @@
       </c>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -2128,7 +2087,7 @@
       </c>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>70</v>
       </c>
@@ -2170,7 +2129,7 @@
       </c>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
@@ -2212,7 +2171,7 @@
       </c>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>47</v>
       </c>
@@ -2254,7 +2213,7 @@
       </c>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>75</v>
       </c>
@@ -2296,7 +2255,7 @@
       </c>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
         <v>59</v>
       </c>
@@ -2338,7 +2297,7 @@
       </c>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
         <v>60</v>
       </c>
@@ -2380,7 +2339,7 @@
       </c>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>39</v>
       </c>
@@ -2422,7 +2381,7 @@
       </c>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>6</v>
       </c>
@@ -2464,7 +2423,7 @@
       </c>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
         <v>61</v>
       </c>
@@ -2506,7 +2465,7 @@
       </c>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
         <v>48</v>
       </c>
@@ -2548,7 +2507,7 @@
       </c>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
         <v>43</v>
       </c>
@@ -2590,7 +2549,7 @@
       </c>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>9</v>
       </c>
@@ -2632,7 +2591,7 @@
       </c>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>14</v>
       </c>
@@ -2674,7 +2633,7 @@
       </c>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
         <v>44</v>
       </c>
@@ -2716,7 +2675,7 @@
       </c>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
         <v>56</v>
       </c>
@@ -2758,7 +2717,7 @@
       </c>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
         <v>71</v>
       </c>
@@ -2800,7 +2759,7 @@
       </c>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
@@ -2842,7 +2801,7 @@
       </c>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
         <v>63</v>
       </c>
@@ -2884,7 +2843,7 @@
       </c>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>33</v>
       </c>
@@ -2926,7 +2885,7 @@
       </c>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
         <v>40</v>
       </c>
@@ -2968,7 +2927,7 @@
       </c>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="s">
         <v>41</v>
       </c>
@@ -3010,7 +2969,7 @@
       </c>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
         <v>1</v>
       </c>
@@ -3052,7 +3011,7 @@
       </c>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>2</v>
       </c>
@@ -3094,7 +3053,7 @@
       </c>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>76</v>
       </c>
@@ -3136,7 +3095,7 @@
       </c>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>34</v>
       </c>
@@ -3178,7 +3137,7 @@
       </c>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
         <v>29</v>
       </c>
@@ -3220,7 +3179,7 @@
       </c>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15" t="s">
         <v>27</v>
       </c>
@@ -3262,7 +3221,7 @@
       </c>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>64</v>
       </c>
@@ -3304,7 +3263,7 @@
       </c>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>65</v>
       </c>
@@ -3346,7 +3305,7 @@
       </c>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="15" t="s">
         <v>17</v>
       </c>
@@ -3388,7 +3347,7 @@
       </c>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>72</v>
       </c>
@@ -3430,7 +3389,7 @@
       </c>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
@@ -3472,7 +3431,7 @@
       </c>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>74</v>
       </c>
@@ -3514,7 +3473,7 @@
       </c>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="15" t="s">
         <v>30</v>
       </c>
@@ -3556,7 +3515,7 @@
       </c>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="15" t="s">
         <v>10</v>
       </c>
@@ -3598,7 +3557,7 @@
       </c>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="15" t="s">
         <v>18</v>
       </c>
@@ -3640,7 +3599,7 @@
       </c>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="15" t="s">
         <v>31</v>
       </c>
@@ -3682,7 +3641,7 @@
       </c>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="15" t="s">
         <v>15</v>
       </c>
@@ -3724,7 +3683,7 @@
       </c>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="15" t="s">
         <v>23</v>
       </c>
@@ -3766,7 +3725,7 @@
       </c>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
@@ -3808,7 +3767,7 @@
       </c>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="15" t="s">
         <v>11</v>
       </c>
@@ -3850,7 +3809,7 @@
       </c>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>45</v>
       </c>
@@ -3892,7 +3851,7 @@
       </c>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="15" t="s">
         <v>12</v>
       </c>
@@ -3934,7 +3893,7 @@
       </c>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="15" t="s">
         <v>19</v>
       </c>
@@ -3976,7 +3935,7 @@
       </c>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="15" t="s">
         <v>20</v>
       </c>
@@ -4018,7 +3977,7 @@
       </c>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="15" t="s">
         <v>3</v>
       </c>
@@ -4060,7 +4019,7 @@
       </c>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="15" t="s">
         <v>35</v>
       </c>
@@ -4102,7 +4061,7 @@
       </c>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>51</v>
       </c>
@@ -4144,7 +4103,7 @@
       </c>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="15" t="s">
         <v>7</v>
       </c>
@@ -4186,7 +4145,7 @@
       </c>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="15" t="s">
         <v>36</v>
       </c>
@@ -4228,7 +4187,7 @@
       </c>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>67</v>
       </c>
@@ -4270,7 +4229,7 @@
       </c>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="15" t="s">
         <v>16</v>
       </c>
@@ -4312,7 +4271,7 @@
       </c>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="15" t="s">
         <v>28</v>
       </c>
@@ -4354,7 +4313,7 @@
       </c>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
         <v>57</v>
       </c>
@@ -4396,7 +4355,7 @@
       </c>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>68</v>
       </c>
@@ -4438,7 +4397,7 @@
       </c>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="15" t="s">
         <v>32</v>
       </c>
@@ -4480,7 +4439,7 @@
       </c>
       <c r="N71" s="2"/>
     </row>
-    <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="15" t="s">
         <v>24</v>
       </c>
@@ -4522,7 +4481,7 @@
       </c>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
         <v>52</v>
       </c>
@@ -4564,7 +4523,7 @@
       </c>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>42</v>
       </c>
@@ -4606,7 +4565,7 @@
       </c>
       <c r="N74" s="2"/>
     </row>
-    <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>73</v>
       </c>
@@ -4648,7 +4607,7 @@
       </c>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <v>69</v>
       </c>
@@ -4690,7 +4649,7 @@
       </c>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="15" t="s">
         <v>37</v>
       </c>
@@ -4732,7 +4691,7 @@
       </c>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <v>53</v>
       </c>

--- a/2013_dengue_extracted.xlsx
+++ b/2013_dengue_extracted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB36267-63A6-4040-997E-D9B07F857B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{4AB36267-63A6-4040-997E-D9B07F857B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E8737E0-5E35-4B9D-874A-328E5EF159D4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -907,7 +907,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>June</t>
+      <t>Aug</t>
     </r>
   </si>
   <si>
@@ -918,7 +918,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>July</t>
+      <t>Oct</t>
     </r>
   </si>
   <si>
@@ -929,7 +929,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Aug</t>
+      <t>Nov</t>
     </r>
   </si>
   <si>
@@ -940,44 +940,20 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Sept</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Oct</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nov</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Dec</t>
     </r>
   </si>
   <si>
     <t>Reporting_areas</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Sep</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1133,9 +1109,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1151,9 +1133,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1191,9 +1173,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1226,9 +1208,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1261,9 +1260,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1439,27 +1455,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.59765625" customWidth="1"/>
-    <col min="2" max="3" width="9.3984375" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" customWidth="1"/>
-    <col min="6" max="6" width="9.796875" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" customWidth="1"/>
-    <col min="8" max="8" width="9.19921875" customWidth="1"/>
-    <col min="9" max="9" width="10.3984375" customWidth="1"/>
-    <col min="10" max="10" width="10.796875" customWidth="1"/>
-    <col min="11" max="12" width="10.3984375" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="2" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="11" max="12" width="10.44140625" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>77</v>
@@ -1476,30 +1494,30 @@
       <c r="F1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>88</v>
-      </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>50</v>
       </c>
@@ -1541,7 +1559,7 @@
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1583,7 +1601,7 @@
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -1625,7 +1643,7 @@
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>38</v>
       </c>
@@ -1667,7 +1685,7 @@
       </c>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
@@ -1709,7 +1727,7 @@
       </c>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1751,7 +1769,7 @@
       </c>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1793,7 +1811,7 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>55</v>
       </c>
@@ -1835,7 +1853,7 @@
       </c>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
@@ -1877,7 +1895,7 @@
       </c>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>58</v>
       </c>
@@ -1919,7 +1937,7 @@
       </c>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>62</v>
       </c>
@@ -1961,7 +1979,7 @@
       </c>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -2003,7 +2021,7 @@
       </c>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
@@ -2045,7 +2063,7 @@
       </c>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -2087,7 +2105,7 @@
       </c>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>70</v>
       </c>
@@ -2129,7 +2147,7 @@
       </c>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
@@ -2171,7 +2189,7 @@
       </c>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>47</v>
       </c>
@@ -2213,7 +2231,7 @@
       </c>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>75</v>
       </c>
@@ -2255,7 +2273,7 @@
       </c>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>59</v>
       </c>
@@ -2297,7 +2315,7 @@
       </c>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>60</v>
       </c>
@@ -2339,7 +2357,7 @@
       </c>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>39</v>
       </c>
@@ -2381,7 +2399,7 @@
       </c>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>6</v>
       </c>
@@ -2423,7 +2441,7 @@
       </c>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>61</v>
       </c>
@@ -2465,7 +2483,7 @@
       </c>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>48</v>
       </c>
@@ -2507,7 +2525,7 @@
       </c>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>43</v>
       </c>
@@ -2549,7 +2567,7 @@
       </c>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>9</v>
       </c>
@@ -2591,7 +2609,7 @@
       </c>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>14</v>
       </c>
@@ -2633,7 +2651,7 @@
       </c>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>44</v>
       </c>
@@ -2675,7 +2693,7 @@
       </c>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>56</v>
       </c>
@@ -2717,7 +2735,7 @@
       </c>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>71</v>
       </c>
@@ -2759,7 +2777,7 @@
       </c>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
@@ -2801,7 +2819,7 @@
       </c>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>63</v>
       </c>
@@ -2843,7 +2861,7 @@
       </c>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>33</v>
       </c>
@@ -2885,7 +2903,7 @@
       </c>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>40</v>
       </c>
@@ -2927,7 +2945,7 @@
       </c>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>41</v>
       </c>
@@ -2969,7 +2987,7 @@
       </c>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>1</v>
       </c>
@@ -3011,7 +3029,7 @@
       </c>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>2</v>
       </c>
@@ -3053,7 +3071,7 @@
       </c>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>76</v>
       </c>
@@ -3095,7 +3113,7 @@
       </c>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>34</v>
       </c>
@@ -3137,7 +3155,7 @@
       </c>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>29</v>
       </c>
@@ -3179,7 +3197,7 @@
       </c>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>27</v>
       </c>
@@ -3221,7 +3239,7 @@
       </c>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>64</v>
       </c>
@@ -3263,7 +3281,7 @@
       </c>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>65</v>
       </c>
@@ -3305,7 +3323,7 @@
       </c>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>17</v>
       </c>
@@ -3347,7 +3365,7 @@
       </c>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>72</v>
       </c>
@@ -3389,7 +3407,7 @@
       </c>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
@@ -3431,7 +3449,7 @@
       </c>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>74</v>
       </c>
@@ -3473,7 +3491,7 @@
       </c>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>30</v>
       </c>
@@ -3515,7 +3533,7 @@
       </c>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>10</v>
       </c>
@@ -3557,7 +3575,7 @@
       </c>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>18</v>
       </c>
@@ -3599,7 +3617,7 @@
       </c>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>31</v>
       </c>
@@ -3641,7 +3659,7 @@
       </c>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>15</v>
       </c>
@@ -3683,7 +3701,7 @@
       </c>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>23</v>
       </c>
@@ -3725,7 +3743,7 @@
       </c>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
@@ -3767,7 +3785,7 @@
       </c>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>11</v>
       </c>
@@ -3809,7 +3827,7 @@
       </c>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>45</v>
       </c>
@@ -3851,7 +3869,7 @@
       </c>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>12</v>
       </c>
@@ -3893,7 +3911,7 @@
       </c>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>19</v>
       </c>
@@ -3935,7 +3953,7 @@
       </c>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>20</v>
       </c>
@@ -3977,7 +3995,7 @@
       </c>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>3</v>
       </c>
@@ -4019,7 +4037,7 @@
       </c>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>35</v>
       </c>
@@ -4061,7 +4079,7 @@
       </c>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>51</v>
       </c>
@@ -4103,7 +4121,7 @@
       </c>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>7</v>
       </c>
@@ -4145,7 +4163,7 @@
       </c>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>36</v>
       </c>
@@ -4187,7 +4205,7 @@
       </c>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>67</v>
       </c>
@@ -4229,7 +4247,7 @@
       </c>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>16</v>
       </c>
@@ -4271,7 +4289,7 @@
       </c>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>28</v>
       </c>
@@ -4313,7 +4331,7 @@
       </c>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>57</v>
       </c>
@@ -4355,7 +4373,7 @@
       </c>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>68</v>
       </c>
@@ -4397,7 +4415,7 @@
       </c>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>32</v>
       </c>
@@ -4439,7 +4457,7 @@
       </c>
       <c r="N71" s="2"/>
     </row>
-    <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>24</v>
       </c>
@@ -4481,7 +4499,7 @@
       </c>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>52</v>
       </c>
@@ -4523,7 +4541,7 @@
       </c>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>42</v>
       </c>
@@ -4565,7 +4583,7 @@
       </c>
       <c r="N74" s="2"/>
     </row>
-    <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>73</v>
       </c>
@@ -4607,7 +4625,7 @@
       </c>
       <c r="N75" s="2"/>
     </row>
-    <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>69</v>
       </c>
@@ -4649,7 +4667,7 @@
       </c>
       <c r="N76" s="2"/>
     </row>
-    <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
         <v>37</v>
       </c>
@@ -4691,7 +4709,7 @@
       </c>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>53</v>
       </c>

--- a/2013_dengue_extracted.xlsx
+++ b/2013_dengue_extracted.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{4AB36267-63A6-4040-997E-D9B07F857B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E8737E0-5E35-4B9D-874A-328E5EF159D4}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{4AB36267-63A6-4040-997E-D9B07F857B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27578C3E-F1AF-420F-A12A-64443BAAE603}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,17 +535,6 @@
         <rFont val="Microsoft Sans Serif"/>
         <family val="2"/>
       </rPr>
-      <t>Kalisin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Microsoft Sans Serif"/>
-        <family val="2"/>
-      </rPr>
       <t>Khon Kaen</t>
     </r>
   </si>
@@ -954,6 +943,9 @@
   </si>
   <si>
     <t>Sep</t>
+  </si>
+  <si>
+    <t>Kalasin</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1115,6 +1107,9 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1132,10 +1127,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1173,9 +1172,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1208,26 +1207,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1260,26 +1242,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1456,7 +1421,7 @@
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1477,49 +1442,49 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="5">
         <v>8</v>
@@ -1687,7 +1652,7 @@
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="5">
         <v>111</v>
@@ -1813,7 +1778,7 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="5">
         <v>43</v>
@@ -1897,7 +1862,7 @@
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="5">
         <v>138</v>
@@ -1939,7 +1904,7 @@
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5">
         <v>131</v>
@@ -2064,8 +2029,8 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>46</v>
+      <c r="A15" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="B15" s="5">
         <v>19</v>
@@ -2107,7 +2072,7 @@
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5">
         <v>37</v>
@@ -2191,7 +2156,7 @@
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="5">
         <v>112</v>
@@ -2233,7 +2198,7 @@
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="5">
         <v>201</v>
@@ -2275,7 +2240,7 @@
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="5">
         <v>33</v>
@@ -2317,7 +2282,7 @@
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="5">
         <v>37</v>
@@ -2443,7 +2408,7 @@
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="5">
         <v>5</v>
@@ -2485,7 +2450,7 @@
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="5">
         <v>96</v>
@@ -2695,7 +2660,7 @@
     </row>
     <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="5">
         <v>294</v>
@@ -2737,7 +2702,7 @@
     </row>
     <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="5">
         <v>182</v>
@@ -2821,7 +2786,7 @@
     </row>
     <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="5">
         <v>16</v>
@@ -3073,7 +3038,7 @@
     </row>
     <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" s="5">
         <v>105</v>
@@ -3241,7 +3206,7 @@
     </row>
     <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B43" s="5">
         <v>18</v>
@@ -3283,7 +3248,7 @@
     </row>
     <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44" s="5">
         <v>48</v>
@@ -3367,7 +3332,7 @@
     </row>
     <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" s="5">
         <v>54</v>
@@ -3409,7 +3374,7 @@
     </row>
     <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="5">
         <v>69</v>
@@ -3451,7 +3416,7 @@
     </row>
     <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" s="5">
         <v>10</v>
@@ -3745,7 +3710,7 @@
     </row>
     <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" s="5">
         <v>104</v>
@@ -4081,7 +4046,7 @@
     </row>
     <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63" s="5">
         <v>107</v>
@@ -4207,7 +4172,7 @@
     </row>
     <row r="66" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="5">
         <v>22</v>
@@ -4333,7 +4298,7 @@
     </row>
     <row r="69" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B69" s="5">
         <v>223</v>
@@ -4375,7 +4340,7 @@
     </row>
     <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="5">
         <v>30</v>
@@ -4501,7 +4466,7 @@
     </row>
     <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B73" s="5">
         <v>78</v>
@@ -4585,7 +4550,7 @@
     </row>
     <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="5">
         <v>40</v>
@@ -4627,7 +4592,7 @@
     </row>
     <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B76" s="5">
         <v>18</v>
@@ -4711,7 +4676,7 @@
     </row>
     <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B78" s="5">
         <v>25</v>
